--- a/2018_tourist.xlsx
+++ b/2018_tourist.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anderson/Documents/R資料科學第一組final project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E8B742-1705-064F-BFC6-E7D1D57D0A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5628" yWindow="168" windowWidth="12456" windowHeight="6732" tabRatio="909"/>
+    <workbookView xWindow="5620" yWindow="500" windowWidth="24780" windowHeight="18900" tabRatio="909" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="累計明細表- 以類型分" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -558,10 +564,6 @@
 Yangmingshan National Park</t>
   </si>
   <si>
-    <t>遊客中心
-Visitor Center</t>
-  </si>
-  <si>
     <t>臺北市 Taipei City</t>
   </si>
   <si>
@@ -1558,9 +1560,6 @@
 The Nantou Panoramic Skywalk</t>
   </si>
   <si>
-    <t>曾文水庫                                                                                                  Zengwun Dam</t>
-  </si>
-  <si>
     <t>烏樹林休閒園區
 Wu Shu Lin Recreational Park</t>
   </si>
@@ -1659,10 +1658,6 @@
 Huashan 1914 Creative Park</t>
   </si>
   <si>
-    <t>國立臺灣博物館
-National Taiwan Museum</t>
-  </si>
-  <si>
     <t>翡翠灣濱海遊樂區
 Green Bay</t>
   </si>
@@ -1750,10 +1745,6 @@
 Wanjui Forest Recreational Area</t>
   </si>
   <si>
-    <t>綠世界生態休閒農場
-Green World</t>
-  </si>
-  <si>
     <t>南園清心園林休閒農場
 Garden Nan</t>
   </si>
@@ -1778,10 +1769,6 @@
 Dongshi Forest Garden</t>
   </si>
   <si>
-    <t>杉林溪森林遊樂區 
-Sun Link Sea Forest Recreation Area</t>
-  </si>
-  <si>
     <t>泰雅渡假村 
 Atayal Village</t>
   </si>
@@ -1793,10 +1780,6 @@
     <t>劍湖山世界                                                                                                 JanFuSun Fancyworld</t>
   </si>
   <si>
-    <t>走馬瀨農場◎ 
-Tsou-Ma-Lai Farm</t>
-  </si>
-  <si>
     <t>頑皮世界
 Leopard King Safari Zoo</t>
   </si>
@@ -1869,70 +1852,100 @@
 Fort San Domingo, Tamsui</t>
   </si>
   <si>
+    <t>滬尾砲臺
+Huwei Fort</t>
+  </si>
+  <si>
+    <t>前清淡水關稅務司官邸
+Tamsui Customs Officer's Residence</t>
+  </si>
+  <si>
+    <t>北埔遊憩區
+Beipu Scenic Area</t>
+  </si>
+  <si>
+    <t>鹿港龍山寺
+Longshan Temple, Lugang</t>
+  </si>
+  <si>
+    <t>彰化孔子廟 
+Confucius Temple, Chunghua</t>
+  </si>
+  <si>
+    <t>延平郡王祠
+Koxinga Shrine</t>
+  </si>
+  <si>
+    <t>赤嵌樓
+Fort Provintia</t>
+  </si>
+  <si>
+    <t>臺南孔子廟
+Confucius Temple, Tainan</t>
+  </si>
+  <si>
+    <t>祀典武廟
+War God Temple</t>
+  </si>
+  <si>
+    <t>五妃廟 
+Five Concubines Temple</t>
+  </si>
+  <si>
+    <t>大天后宮
+Great Empress of Heaven Temple</t>
+  </si>
+  <si>
+    <t>安平小鎮
+Anping Recreation Area</t>
+  </si>
+  <si>
+    <t>三峽鎮歷史文物館
+Sansia Historical Relic Hall</t>
+  </si>
+  <si>
+    <t>霧峰林家園區
+Wufeng Lin Family Garden</t>
+  </si>
+  <si>
+    <t>走馬瀨農場
+Tsou-Ma-Lai Farm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽明山遊客中心
+Visitor Center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>林本源園邸( 林家花園) 
 The Lin Family Mans</t>
-  </si>
-  <si>
-    <t>滬尾砲臺
-Huwei Fort</t>
-  </si>
-  <si>
-    <t>前清淡水關稅務司官邸
-Tamsui Customs Officer's Residence</t>
-  </si>
-  <si>
-    <t>北埔遊憩區
-Beipu Scenic Area</t>
-  </si>
-  <si>
-    <t>鹿港龍山寺
-Longshan Temple, Lugang</t>
-  </si>
-  <si>
-    <t>彰化孔子廟 
-Confucius Temple, Chunghua</t>
-  </si>
-  <si>
-    <t>延平郡王祠
-Koxinga Shrine</t>
-  </si>
-  <si>
-    <t>赤嵌樓
-Fort Provintia</t>
-  </si>
-  <si>
-    <t>臺南孔子廟
-Confucius Temple, Tainan</t>
-  </si>
-  <si>
-    <t>祀典武廟
-War God Temple</t>
-  </si>
-  <si>
-    <t>五妃廟 
-Five Concubines Temple</t>
-  </si>
-  <si>
-    <t>大天后宮
-Great Empress of Heaven Temple</t>
-  </si>
-  <si>
-    <t>安平小鎮
-Anping Recreation Area</t>
-  </si>
-  <si>
-    <t>三峽鎮歷史文物館
-Sansia Historical Relic Hall</t>
-  </si>
-  <si>
-    <t>霧峰林家園區
-Wufeng Lin Family Garden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國立臺灣博物館
+National Taiwan museum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠世界生態農場
+Green World</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杉林溪森林生態渡假園區
+Sun Link Sea Forest Recreation Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾文水庫                                                                                                  Zengwun Dam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="12"/>
@@ -2101,24 +2114,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2128,10 +2123,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般_Sheet1" xfId="1"/>
+    <cellStyle name="一般_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2401,58 +2414,58 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q342"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T332" sqref="T332"/>
+      <selection pane="bottomRight" activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="2" customWidth="1"/>
-    <col min="4" max="15" width="7.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="2" customWidth="1"/>
+    <col min="4" max="15" width="7.83203125" customWidth="1"/>
     <col min="16" max="16" width="10.6640625" customWidth="1"/>
     <col min="17" max="17" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="70.2" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="70.25" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" ht="6.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2522,13 +2535,13 @@
       </c>
     </row>
     <row r="4" spans="1:17" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -2544,15 +2557,15 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="27.6">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:17" ht="28">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>150</v>
       </c>
       <c r="D5" s="3">
         <v>18832</v>
@@ -2598,15 +2611,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27.6">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:17" ht="28">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="13" t="s">
         <v>150</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D6" s="3">
         <v>1616</v>
@@ -2652,15 +2665,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="27.6">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:17" ht="28">
+      <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>150</v>
+      <c r="B7" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D7" s="3">
         <v>8750</v>
@@ -2706,15 +2719,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27.6">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:17" ht="28">
+      <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>150</v>
+      <c r="B8" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D8" s="3">
         <v>30588</v>
@@ -2760,15 +2773,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27.6">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:17" ht="28">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>150</v>
+      <c r="B9" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D9" s="3">
         <v>27405</v>
@@ -2814,15 +2827,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="27.6">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:17" ht="28">
+      <c r="A10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>150</v>
+      <c r="B10" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D10" s="3">
         <v>25298</v>
@@ -2868,68 +2881,68 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="27.6">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:17" ht="28">
+      <c r="A11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="28">
+      <c r="A12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="27.6">
-      <c r="A12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="C12" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>158</v>
       </c>
       <c r="D12" s="3">
         <v>64502</v>
@@ -2975,15 +2988,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="27.6">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:17" ht="28">
+      <c r="A13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>160</v>
       </c>
       <c r="D13" s="3">
         <v>4997</v>
@@ -3029,15 +3042,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="27.6">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:17" ht="28">
+      <c r="A14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>162</v>
       </c>
       <c r="D14" s="3">
         <v>22627</v>
@@ -3083,15 +3096,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="27.6">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:17" ht="28">
+      <c r="A15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>164</v>
       </c>
       <c r="D15" s="3">
         <v>11857</v>
@@ -3137,15 +3150,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="27.6">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:17" ht="28">
+      <c r="A16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="13" t="s">
         <v>164</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D16" s="3">
         <v>693</v>
@@ -3191,66 +3204,66 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="27.6">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:17" ht="28">
+      <c r="A17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="28">
+      <c r="A18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="27.6">
-      <c r="A18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>168</v>
       </c>
       <c r="D18" s="3">
         <v>43391</v>
@@ -3296,15 +3309,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="27.6">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:17" ht="28">
+      <c r="A19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="13" t="s">
         <v>168</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="D19" s="3">
         <v>7922</v>
@@ -3350,15 +3363,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="27.6">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:17" ht="28">
+      <c r="A20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>168</v>
+      <c r="B20" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="D20" s="3">
         <v>7130</v>
@@ -3404,15 +3417,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="27.6">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:17" ht="28">
+      <c r="A21" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>160</v>
+      <c r="B21" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D21" s="3">
         <v>8193</v>
@@ -3458,68 +3471,68 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="27.6">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:17" ht="28">
+      <c r="A22" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="28">
+      <c r="A23" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="41.4">
-      <c r="A23" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="19" t="s">
+      <c r="C23" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>174</v>
       </c>
       <c r="D23" s="3">
         <v>5806</v>
@@ -3565,15 +3578,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="27.6">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:17" ht="28">
+      <c r="A24" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="13" t="s">
         <v>174</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D24" s="3">
         <v>39422</v>
@@ -3619,15 +3632,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="27.6">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:17" ht="28">
+      <c r="A25" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>174</v>
+      <c r="B25" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D25" s="3">
         <v>53133</v>
@@ -3673,15 +3686,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="27.6">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:17" ht="28">
+      <c r="A26" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>174</v>
+      <c r="B26" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D26" s="3">
         <v>6779</v>
@@ -3727,15 +3740,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="27.6">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:17" ht="28">
+      <c r="A27" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>174</v>
+      <c r="B27" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D27" s="3">
         <v>6595</v>
@@ -3781,15 +3794,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="27.6">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:17" ht="28">
+      <c r="A28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>174</v>
+      <c r="B28" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D28" s="3">
         <v>28186</v>
@@ -3835,15 +3848,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="27.6">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:17" ht="28">
+      <c r="A29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>174</v>
+      <c r="B29" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D29" s="3">
         <v>5742</v>
@@ -3889,15 +3902,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="27.6">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:17" ht="28">
+      <c r="A30" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>174</v>
+      <c r="B30" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D30" s="3">
         <v>9606</v>
@@ -3943,15 +3956,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="41.4">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:17" ht="28">
+      <c r="A31" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>174</v>
+      <c r="B31" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D31" s="3">
         <v>40988</v>
@@ -3997,66 +4010,66 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="27.6">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:17" ht="28">
+      <c r="A32" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="28">
+      <c r="A33" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="27.6">
-      <c r="A33" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>162</v>
+      <c r="C33" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D33" s="3">
         <v>66469</v>
@@ -4102,15 +4115,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="27.6">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:17" ht="28">
+      <c r="A34" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>162</v>
+      <c r="B34" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D34" s="3">
         <v>17709</v>
@@ -4156,15 +4169,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="27.6">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:17" ht="28">
+      <c r="A35" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>162</v>
+      <c r="B35" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D35" s="3">
         <v>193605</v>
@@ -4210,66 +4223,66 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="27.6">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:17" ht="28">
+      <c r="A36" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="28">
+      <c r="A37" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="27.6">
-      <c r="A37" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="19" t="s">
+      <c r="C37" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>189</v>
       </c>
       <c r="D37" s="3">
         <v>10576</v>
@@ -4315,15 +4328,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="27.6">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:17" ht="28">
+      <c r="A38" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" s="18" t="s">
+      <c r="B38" s="13" t="s">
         <v>189</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="D38" s="3">
         <v>25779</v>
@@ -4369,15 +4382,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="27.6">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:17" ht="28">
+      <c r="A39" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>189</v>
+      <c r="B39" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="D39" s="3">
         <v>6193</v>
@@ -4423,15 +4436,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="27.6">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:17" ht="28">
+      <c r="A40" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>189</v>
+      <c r="B40" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="D40" s="3">
         <v>9172</v>
@@ -4477,15 +4490,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="27.6">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:17" ht="28">
+      <c r="A41" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>189</v>
+      <c r="B41" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="D41" s="3">
         <v>3915</v>
@@ -4531,15 +4544,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="27.6">
-      <c r="A42" s="12" t="s">
+    <row r="42" spans="1:17" ht="28">
+      <c r="A42" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>189</v>
+      <c r="B42" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="D42" s="3">
         <v>6496</v>
@@ -4585,15 +4598,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="27.6">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:17" ht="28">
+      <c r="A43" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>189</v>
+      <c r="B43" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="D43" s="3">
         <v>4750</v>
@@ -4639,15 +4652,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="27.6">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:17" ht="28">
+      <c r="A44" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>189</v>
+      <c r="B44" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="D44" s="3">
         <v>12497</v>
@@ -4693,15 +4706,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="27.6">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:17" ht="28">
+      <c r="A45" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>189</v>
+      <c r="B45" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="D45" s="3">
         <v>11108</v>
@@ -4747,66 +4760,66 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="27.6">
-      <c r="A46" s="12" t="s">
+    <row r="46" spans="1:17" ht="28">
+      <c r="A46" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="28">
+      <c r="A47" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="27.6">
-      <c r="A47" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="19" t="s">
+      <c r="C47" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>200</v>
       </c>
       <c r="D47" s="3">
         <v>3989</v>
@@ -4852,15 +4865,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="27.6">
-      <c r="A48" s="12" t="s">
+    <row r="48" spans="1:17" ht="28">
+      <c r="A48" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C48" s="18" t="s">
+      <c r="B48" s="13" t="s">
         <v>200</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D48" s="3">
         <v>1421</v>
@@ -4906,15 +4919,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="27.6">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:17" ht="28">
+      <c r="A49" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>200</v>
+      <c r="B49" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D49" s="3">
         <v>255</v>
@@ -4960,15 +4973,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="27.6">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:17" ht="28">
+      <c r="A50" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>200</v>
+      <c r="B50" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D50" s="3">
         <v>29655</v>
@@ -5014,15 +5027,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="27.6">
-      <c r="A51" s="12" t="s">
+    <row r="51" spans="1:17" ht="28">
+      <c r="A51" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>205</v>
       </c>
       <c r="D51" s="3">
         <v>30114</v>
@@ -5068,15 +5081,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="27.6">
-      <c r="A52" s="12" t="s">
+    <row r="52" spans="1:17" ht="28">
+      <c r="A52" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>200</v>
+      <c r="B52" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D52" s="3">
         <v>1283</v>
@@ -5122,15 +5135,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="27.6">
-      <c r="A53" s="12" t="s">
+    <row r="53" spans="1:17" ht="28">
+      <c r="A53" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>200</v>
+      <c r="B53" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D53" s="3">
         <v>1510</v>
@@ -5176,15 +5189,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="27.6">
-      <c r="A54" s="12" t="s">
+    <row r="54" spans="1:17" ht="28">
+      <c r="A54" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>200</v>
+      <c r="B54" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D54" s="3">
         <v>4806</v>
@@ -5230,15 +5243,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="27.6">
-      <c r="A55" s="12" t="s">
+    <row r="55" spans="1:17" ht="28">
+      <c r="A55" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B55" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>200</v>
+      <c r="B55" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D55" s="3">
         <v>17539</v>
@@ -5284,15 +5297,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="41.4">
-      <c r="A56" s="12" t="s">
+    <row r="56" spans="1:17" ht="42">
+      <c r="A56" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>211</v>
       </c>
       <c r="D56" s="3">
         <v>28749</v>
@@ -5338,15 +5351,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="27.6">
-      <c r="A57" s="12" t="s">
+    <row r="57" spans="1:17" ht="28">
+      <c r="A57" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>205</v>
+      <c r="B57" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D57" s="3">
         <v>31682</v>
@@ -5392,15 +5405,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="27.6">
-      <c r="A58" s="12" t="s">
+    <row r="58" spans="1:17" ht="28">
+      <c r="A58" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>205</v>
+      <c r="B58" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
@@ -5446,15 +5459,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="27.6">
-      <c r="A59" s="12" t="s">
+    <row r="59" spans="1:17" ht="28">
+      <c r="A59" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>205</v>
+      <c r="B59" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D59" s="3">
         <v>16825</v>
@@ -5500,15 +5513,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="27.6">
-      <c r="A60" s="12" t="s">
+    <row r="60" spans="1:17" ht="28">
+      <c r="A60" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>205</v>
+      <c r="B60" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D60" s="3">
         <v>19886</v>
@@ -5554,15 +5567,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="27.6">
-      <c r="A61" s="12" t="s">
+    <row r="61" spans="1:17" ht="28">
+      <c r="A61" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>200</v>
+      <c r="B61" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D61" s="3">
         <v>621</v>
@@ -5608,68 +5621,68 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="41.4">
-      <c r="A62" s="12" t="s">
+    <row r="62" spans="1:17" ht="28">
+      <c r="A62" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="28">
+      <c r="A63" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C62" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="27.6">
-      <c r="A63" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>200</v>
+      <c r="C63" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D63" s="3">
         <v>217858</v>
@@ -5715,15 +5728,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="27.6">
-      <c r="A64" s="12" t="s">
+    <row r="64" spans="1:17" ht="28">
+      <c r="A64" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>200</v>
+      <c r="B64" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D64" s="3">
         <v>22344</v>
@@ -5769,15 +5782,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="27.6">
-      <c r="A65" s="12" t="s">
+    <row r="65" spans="1:17" ht="28">
+      <c r="A65" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>200</v>
+      <c r="B65" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D65" s="3">
         <v>73259</v>
@@ -5823,15 +5836,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="27.6">
-      <c r="A66" s="12" t="s">
+    <row r="66" spans="1:17" ht="28">
+      <c r="A66" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>221</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>222</v>
       </c>
       <c r="D66" s="3">
         <v>41185</v>
@@ -5877,15 +5890,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="27.6">
-      <c r="A67" s="12" t="s">
+    <row r="67" spans="1:17" ht="28">
+      <c r="A67" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>200</v>
+      <c r="B67" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D67" s="3">
         <v>23967</v>
@@ -5931,15 +5944,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="27.6">
-      <c r="A68" s="12" t="s">
+    <row r="68" spans="1:17" ht="28">
+      <c r="A68" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>200</v>
+      <c r="B68" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D68" s="3">
         <v>20378</v>
@@ -5985,15 +5998,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="27.6">
-      <c r="A69" s="12" t="s">
+    <row r="69" spans="1:17" ht="28">
+      <c r="A69" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>222</v>
+      <c r="B69" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="D69" s="3">
         <v>14837</v>
@@ -6039,68 +6052,68 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="27.6">
-      <c r="A70" s="12" t="s">
+    <row r="70" spans="1:17" ht="28">
+      <c r="A70" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q70" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="28">
+      <c r="A71" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C70" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q70" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" ht="27.6">
-      <c r="A71" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B71" s="19" t="s">
+      <c r="C71" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>228</v>
       </c>
       <c r="D71" s="3">
         <v>16787</v>
@@ -6146,15 +6159,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="27.6">
-      <c r="A72" s="12" t="s">
+    <row r="72" spans="1:17" ht="28">
+      <c r="A72" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C72" s="18" t="s">
+      <c r="B72" s="13" t="s">
         <v>228</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D72" s="3">
         <v>35508</v>
@@ -6200,15 +6213,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="27.6">
-      <c r="A73" s="12" t="s">
+    <row r="73" spans="1:17" ht="28">
+      <c r="A73" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>228</v>
+      <c r="B73" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D73" s="3">
         <v>6804</v>
@@ -6254,15 +6267,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="27.6">
-      <c r="A74" s="12" t="s">
+    <row r="74" spans="1:17" ht="28">
+      <c r="A74" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B74" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>162</v>
+      <c r="B74" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D74" s="3">
         <v>13853</v>
@@ -6308,15 +6321,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="27.6">
-      <c r="A75" s="12" t="s">
+    <row r="75" spans="1:17" ht="28">
+      <c r="A75" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B75" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>228</v>
+      <c r="B75" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D75" s="3">
         <v>5872</v>
@@ -6362,15 +6375,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="41.4">
-      <c r="A76" s="12" t="s">
+    <row r="76" spans="1:17" ht="42">
+      <c r="A76" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B76" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>228</v>
+      <c r="B76" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D76" s="3">
         <v>5718</v>
@@ -6416,15 +6429,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="27.6">
-      <c r="A77" s="12" t="s">
+    <row r="77" spans="1:17" ht="28">
+      <c r="A77" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>162</v>
+      <c r="B77" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D77" s="3">
         <v>24490</v>
@@ -6470,15 +6483,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="27.6">
-      <c r="A78" s="12" t="s">
+    <row r="78" spans="1:17" ht="28">
+      <c r="A78" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B78" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>162</v>
+      <c r="B78" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D78" s="3">
         <v>3835</v>
@@ -6524,15 +6537,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="27.6">
-      <c r="A79" s="12" t="s">
+    <row r="79" spans="1:17" ht="28">
+      <c r="A79" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B79" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>228</v>
+      <c r="B79" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D79" s="3">
         <v>32387</v>
@@ -6578,66 +6591,66 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="27.6">
-      <c r="A80" s="12" t="s">
+    <row r="80" spans="1:17" ht="28">
+      <c r="A80" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q80" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="28">
+      <c r="A81" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="18"/>
-      <c r="D80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q80" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" ht="27.6">
-      <c r="A81" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>162</v>
+      <c r="C81" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D81" s="3">
         <v>82977</v>
@@ -6683,15 +6696,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="27.6">
-      <c r="A82" s="12" t="s">
+    <row r="82" spans="1:17" ht="28">
+      <c r="A82" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>228</v>
+      <c r="B82" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D82" s="3">
         <v>41463</v>
@@ -6737,15 +6750,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="27.6">
-      <c r="A83" s="12" t="s">
+    <row r="83" spans="1:17" ht="28">
+      <c r="A83" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B83" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>162</v>
+      <c r="B83" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D83" s="3">
         <v>8615</v>
@@ -6791,15 +6804,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="27.6">
-      <c r="A84" s="12" t="s">
+    <row r="84" spans="1:17" ht="28">
+      <c r="A84" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B84" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>162</v>
+      <c r="B84" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D84" s="3">
         <v>25797</v>
@@ -6845,15 +6858,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="27.6">
-      <c r="A85" s="12" t="s">
+    <row r="85" spans="1:17" ht="28">
+      <c r="A85" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B85" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>162</v>
+      <c r="B85" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D85" s="3">
         <v>14627</v>
@@ -6899,15 +6912,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="27.6">
-      <c r="A86" s="12" t="s">
+    <row r="86" spans="1:17" ht="28">
+      <c r="A86" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>228</v>
+      <c r="B86" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D86" s="3">
         <v>4285</v>
@@ -6953,15 +6966,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="27.6">
-      <c r="A87" s="12" t="s">
+    <row r="87" spans="1:17" ht="28">
+      <c r="A87" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>228</v>
+      <c r="B87" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D87" s="3">
         <v>15889</v>
@@ -7007,66 +7020,66 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="27.6">
-      <c r="A88" s="12" t="s">
+    <row r="88" spans="1:17" ht="28">
+      <c r="A88" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q88" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="28">
+      <c r="A89" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q88" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" ht="27.6">
-      <c r="A89" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B89" s="19" t="s">
+      <c r="C89" s="12" t="s">
         <v>246</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>247</v>
       </c>
       <c r="D89" s="3">
         <v>449020</v>
@@ -7112,15 +7125,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="27.6">
-      <c r="A90" s="12" t="s">
+    <row r="90" spans="1:17" ht="28">
+      <c r="A90" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B90" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>160</v>
+      <c r="B90" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D90" s="3">
         <v>18678</v>
@@ -7166,15 +7179,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="27.6">
-      <c r="A91" s="12" t="s">
+    <row r="91" spans="1:17" ht="28">
+      <c r="A91" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>250</v>
       </c>
       <c r="D91" s="3">
         <v>314061</v>
@@ -7220,15 +7233,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="27.6">
-      <c r="A92" s="12" t="s">
+    <row r="92" spans="1:17" ht="28">
+      <c r="A92" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B92" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>160</v>
+      <c r="B92" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D92" s="3">
         <v>151397</v>
@@ -7274,66 +7287,66 @@
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="27.6">
-      <c r="A93" s="12" t="s">
+    <row r="93" spans="1:17" ht="28">
+      <c r="A93" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="B93" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q93" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="28">
+      <c r="A94" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C93" s="18"/>
-      <c r="D93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q93" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" ht="27.6">
-      <c r="A94" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" s="19" t="s">
+      <c r="C94" s="12" t="s">
         <v>253</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="D94" s="3">
         <v>52438</v>
@@ -7379,15 +7392,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="27.6">
-      <c r="A95" s="12" t="s">
+    <row r="95" spans="1:17" ht="28">
+      <c r="A95" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B95" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="C95" s="18" t="s">
+      <c r="B95" s="13" t="s">
         <v>254</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D95" s="3">
         <v>24005</v>
@@ -7433,15 +7446,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="27.6">
-      <c r="A96" s="12" t="s">
+    <row r="96" spans="1:17" ht="28">
+      <c r="A96" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B96" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>254</v>
+      <c r="B96" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D96" s="3">
         <v>19142</v>
@@ -7487,15 +7500,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="27.6">
-      <c r="A97" s="12" t="s">
+    <row r="97" spans="1:17" ht="28">
+      <c r="A97" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B97" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>254</v>
+      <c r="B97" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D97" s="3">
         <v>2096</v>
@@ -7541,66 +7554,66 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="27.6">
-      <c r="A98" s="12" t="s">
+    <row r="98" spans="1:17" ht="28">
+      <c r="A98" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="B98" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C98" s="12"/>
+      <c r="D98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q98" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="28">
+      <c r="A99" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="C98" s="18"/>
-      <c r="D98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q98" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" ht="27.6">
-      <c r="A99" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B99" s="19" t="s">
+      <c r="C99" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>260</v>
       </c>
       <c r="D99" s="3">
         <v>8494</v>
@@ -7646,15 +7659,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="27.6">
-      <c r="A100" s="12" t="s">
+    <row r="100" spans="1:17" ht="28">
+      <c r="A100" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B100" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C100" s="18" t="s">
+      <c r="B100" s="13" t="s">
         <v>260</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="D100" s="3">
         <v>23198</v>
@@ -7700,15 +7713,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="27.6">
-      <c r="A101" s="12" t="s">
+    <row r="101" spans="1:17" ht="28">
+      <c r="A101" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B101" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>260</v>
+      <c r="B101" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="D101" s="3">
         <v>6052</v>
@@ -7754,66 +7767,66 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="27.6">
-      <c r="A102" s="12" t="s">
+    <row r="102" spans="1:17" ht="28">
+      <c r="A102" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="B102" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="28">
+      <c r="A103" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B103" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="C102" s="18"/>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" ht="27.6">
-      <c r="A103" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B103" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>164</v>
+      <c r="C103" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D103" s="3">
         <v>184018</v>
@@ -7859,15 +7872,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="27.6">
-      <c r="A104" s="12" t="s">
+    <row r="104" spans="1:17" ht="28">
+      <c r="A104" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B104" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>164</v>
+      <c r="B104" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D104" s="3">
         <v>1784</v>
@@ -7913,15 +7926,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="27.6">
-      <c r="A105" s="12" t="s">
+    <row r="105" spans="1:17" ht="28">
+      <c r="A105" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B105" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>164</v>
+      <c r="B105" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D105" s="3">
         <v>103944</v>
@@ -7967,68 +7980,68 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="27.6">
-      <c r="A106" s="12" t="s">
+    <row r="106" spans="1:17" ht="28">
+      <c r="A106" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="B106" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q106" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="28">
+      <c r="A107" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="C106" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M106" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N106" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O106" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P106" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q106" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" ht="27.6">
-      <c r="A107" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>254</v>
+      <c r="C107" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D107" s="3">
         <v>18670</v>
@@ -8074,15 +8087,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="27.6">
-      <c r="A108" s="12" t="s">
+    <row r="108" spans="1:17" ht="28">
+      <c r="A108" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B108" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>254</v>
+      <c r="B108" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D108" s="3">
         <v>6773</v>
@@ -8128,15 +8141,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="27.6">
-      <c r="A109" s="12" t="s">
+    <row r="109" spans="1:17" ht="28">
+      <c r="A109" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B109" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>254</v>
+      <c r="B109" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D109" s="3">
         <v>6296</v>
@@ -8182,15 +8195,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="27.6">
-      <c r="A110" s="12" t="s">
+    <row r="110" spans="1:17" ht="28">
+      <c r="A110" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B110" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>260</v>
+      <c r="B110" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="D110" s="3">
         <v>7152</v>
@@ -8236,66 +8249,66 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="27.6">
-      <c r="A111" s="12" t="s">
+    <row r="111" spans="1:17" ht="28">
+      <c r="A111" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="B111" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q111" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="28">
+      <c r="A112" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C111" s="18"/>
-      <c r="D111" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L111" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M111" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N111" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O111" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P111" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q111" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" ht="27.6">
-      <c r="A112" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B112" s="19" t="s">
+      <c r="C112" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>274</v>
       </c>
       <c r="D112" s="3">
         <v>29277</v>
@@ -8341,15 +8354,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="27.6">
-      <c r="A113" s="12" t="s">
+    <row r="113" spans="1:17" ht="28">
+      <c r="A113" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B113" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="C113" s="18" t="s">
+      <c r="B113" s="13" t="s">
         <v>274</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D113" s="3">
         <v>32522</v>
@@ -8395,15 +8408,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="27.6">
-      <c r="A114" s="12" t="s">
+    <row r="114" spans="1:17" ht="28">
+      <c r="A114" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B114" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>174</v>
+      <c r="B114" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D114" s="3">
         <v>19745</v>
@@ -8449,15 +8462,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="27.6">
-      <c r="A115" s="12" t="s">
+    <row r="115" spans="1:17" ht="28">
+      <c r="A115" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B115" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>174</v>
+      <c r="B115" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D115" s="3">
         <v>354</v>
@@ -8503,15 +8516,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="27.6">
-      <c r="A116" s="12" t="s">
+    <row r="116" spans="1:17" ht="28">
+      <c r="A116" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B116" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>174</v>
+      <c r="B116" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D116" s="3">
         <v>17729</v>
@@ -8557,15 +8570,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="27.6">
-      <c r="A117" s="12" t="s">
+    <row r="117" spans="1:17" ht="28">
+      <c r="A117" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B117" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>174</v>
+      <c r="B117" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D117" s="3">
         <v>6806</v>
@@ -8611,15 +8624,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="27.6">
-      <c r="A118" s="12" t="s">
+    <row r="118" spans="1:17" ht="28">
+      <c r="A118" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B118" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>174</v>
+      <c r="B118" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D118" s="3">
         <v>28887</v>
@@ -8665,66 +8678,66 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="27.6">
-      <c r="A119" s="12" t="s">
+    <row r="119" spans="1:17" ht="28">
+      <c r="A119" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="19" t="s">
+      <c r="B119" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C119" s="12"/>
+      <c r="D119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q119" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="28">
+      <c r="A120" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B120" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="C119" s="18"/>
-      <c r="D119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q119" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" ht="27.6">
-      <c r="A120" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B120" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>174</v>
+      <c r="C120" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D120" s="3">
         <v>8151</v>
@@ -8770,15 +8783,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="27.6">
-      <c r="A121" s="12" t="s">
+    <row r="121" spans="1:17" ht="28">
+      <c r="A121" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B121" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="C121" s="18" t="s">
-        <v>174</v>
+      <c r="B121" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D121" s="3">
         <v>21035</v>
@@ -8824,66 +8837,66 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="27.6">
-      <c r="A122" s="12" t="s">
+    <row r="122" spans="1:17" ht="28">
+      <c r="A122" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B122" s="19" t="s">
+      <c r="B122" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C122" s="12"/>
+      <c r="D122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q122" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="28">
+      <c r="A123" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="C122" s="18"/>
-      <c r="D122" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L122" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M122" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N122" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O122" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P122" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q122" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" ht="27.6">
-      <c r="A123" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B123" s="19" t="s">
+      <c r="C123" s="12" t="s">
         <v>285</v>
-      </c>
-      <c r="C123" s="18" t="s">
-        <v>286</v>
       </c>
       <c r="D123" s="3">
         <v>3578</v>
@@ -8929,15 +8942,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="27.6">
-      <c r="A124" s="12" t="s">
+    <row r="124" spans="1:17" ht="28">
+      <c r="A124" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B124" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="C124" s="18" t="s">
+      <c r="B124" s="13" t="s">
         <v>286</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="D124" s="3">
         <v>6821</v>
@@ -8983,15 +8996,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="27.6">
-      <c r="A125" s="12" t="s">
+    <row r="125" spans="1:17" ht="28">
+      <c r="A125" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B125" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>286</v>
+      <c r="B125" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="D125" s="3">
         <v>2199</v>
@@ -9037,15 +9050,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="27.6">
-      <c r="A126" s="12" t="s">
+    <row r="126" spans="1:17" ht="28">
+      <c r="A126" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B126" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="C126" s="18" t="s">
-        <v>286</v>
+      <c r="B126" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="D126" s="3">
         <v>634</v>
@@ -9091,15 +9104,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="27.6">
-      <c r="A127" s="12" t="s">
+    <row r="127" spans="1:17" ht="28">
+      <c r="A127" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B127" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>286</v>
+      <c r="B127" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="D127" s="3">
         <v>5127</v>
@@ -9145,15 +9158,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="27.6">
-      <c r="A128" s="12" t="s">
+    <row r="128" spans="1:17" ht="28">
+      <c r="A128" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B128" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="C128" s="18" t="s">
-        <v>286</v>
+      <c r="B128" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="D128" s="3">
         <v>0</v>
@@ -9199,15 +9212,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="27.6">
-      <c r="A129" s="12" t="s">
+    <row r="129" spans="1:17" ht="28">
+      <c r="A129" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B129" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="C129" s="18" t="s">
-        <v>286</v>
+      <c r="B129" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="D129" s="3">
         <v>1858</v>
@@ -9253,68 +9266,68 @@
         <v>59</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="27.6">
-      <c r="A130" s="12" t="s">
+    <row r="130" spans="1:17" ht="28">
+      <c r="A130" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B130" s="19" t="s">
+      <c r="B130" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M130" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N130" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O130" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P130" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q130" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="28">
+      <c r="A131" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B131" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="C130" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K130" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L130" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M130" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N130" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O130" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P130" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q130" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" ht="27.6">
-      <c r="A131" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B131" s="19" t="s">
+      <c r="C131" s="12" t="s">
         <v>294</v>
-      </c>
-      <c r="C131" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="D131" s="3">
         <v>395</v>
@@ -9360,15 +9373,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="27.6">
-      <c r="A132" s="12" t="s">
+    <row r="132" spans="1:17" ht="28">
+      <c r="A132" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B132" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="C132" s="18" t="s">
+      <c r="B132" s="13" t="s">
         <v>295</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="D132" s="3">
         <v>167</v>
@@ -9414,15 +9427,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="27.6">
-      <c r="A133" s="12" t="s">
+    <row r="133" spans="1:17" ht="28">
+      <c r="A133" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B133" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C133" s="18" t="s">
-        <v>295</v>
+      <c r="B133" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="D133" s="3">
         <v>2032</v>
@@ -9468,15 +9481,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="27.6">
-      <c r="A134" s="12" t="s">
+    <row r="134" spans="1:17" ht="28">
+      <c r="A134" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B134" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="C134" s="18" t="s">
-        <v>295</v>
+      <c r="B134" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="D134" s="3">
         <v>2059</v>
@@ -9522,15 +9535,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="27.6">
-      <c r="A135" s="12" t="s">
+    <row r="135" spans="1:17" ht="28">
+      <c r="A135" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B135" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="C135" s="18" t="s">
-        <v>205</v>
+      <c r="B135" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D135" s="3">
         <v>2879</v>
@@ -9576,15 +9589,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="27.6">
-      <c r="A136" s="12" t="s">
+    <row r="136" spans="1:17" ht="28">
+      <c r="A136" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B136" s="19" t="s">
+      <c r="B136" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C136" s="12" t="s">
         <v>300</v>
-      </c>
-      <c r="C136" s="18" t="s">
-        <v>301</v>
       </c>
       <c r="D136" s="3">
         <v>176960</v>
@@ -9630,15 +9643,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="27.6">
-      <c r="A137" s="12" t="s">
+    <row r="137" spans="1:17" ht="28">
+      <c r="A137" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B137" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="C137" s="18" t="s">
-        <v>205</v>
+      <c r="B137" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D137" s="3">
         <v>7359</v>
@@ -9684,15 +9697,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="27.6">
-      <c r="A138" s="12" t="s">
+    <row r="138" spans="1:17" ht="28">
+      <c r="A138" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B138" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="C138" s="18" t="s">
-        <v>205</v>
+      <c r="B138" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D138" s="3">
         <v>31843</v>
@@ -9738,15 +9751,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="27.6">
-      <c r="A139" s="12" t="s">
+    <row r="139" spans="1:17" ht="28">
+      <c r="A139" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B139" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="C139" s="18" t="s">
-        <v>205</v>
+      <c r="B139" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D139" s="3">
         <v>29973</v>
@@ -9792,15 +9805,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="27.6">
-      <c r="A140" s="12" t="s">
+    <row r="140" spans="1:17" ht="28">
+      <c r="A140" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B140" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="C140" s="18" t="s">
-        <v>162</v>
+      <c r="B140" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D140" s="3">
         <v>88138</v>
@@ -9846,15 +9859,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="27.6">
-      <c r="A141" s="12" t="s">
+    <row r="141" spans="1:17" ht="28">
+      <c r="A141" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B141" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="C141" s="18" t="s">
-        <v>301</v>
+      <c r="B141" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="D141" s="3">
         <v>18512</v>
@@ -9900,15 +9913,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="27.6">
-      <c r="A142" s="12" t="s">
+    <row r="142" spans="1:17" ht="28">
+      <c r="A142" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B142" s="19" t="s">
+      <c r="B142" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C142" s="12" t="s">
         <v>307</v>
-      </c>
-      <c r="C142" s="18" t="s">
-        <v>308</v>
       </c>
       <c r="D142" s="3">
         <v>249256</v>
@@ -9954,15 +9967,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="27.6">
-      <c r="A143" s="12" t="s">
+    <row r="143" spans="1:17" ht="28">
+      <c r="A143" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B143" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C143" s="18" t="s">
-        <v>160</v>
+      <c r="B143" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D143" s="3">
         <v>23958</v>
@@ -10008,15 +10021,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="27.6">
-      <c r="A144" s="12" t="s">
+    <row r="144" spans="1:17" ht="28">
+      <c r="A144" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B144" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="C144" s="18" t="s">
-        <v>164</v>
+      <c r="B144" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D144" s="3">
         <v>23667</v>
@@ -10062,15 +10075,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="27.6">
-      <c r="A145" s="12" t="s">
+    <row r="145" spans="1:17" ht="28">
+      <c r="A145" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B145" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="C145" s="18" t="s">
-        <v>164</v>
+      <c r="B145" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D145" s="3">
         <v>11330</v>
@@ -10116,15 +10129,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="27.6">
-      <c r="A146" s="12" t="s">
+    <row r="146" spans="1:17" ht="28">
+      <c r="A146" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B146" s="19" t="s">
+      <c r="B146" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C146" s="12" t="s">
         <v>312</v>
-      </c>
-      <c r="C146" s="18" t="s">
-        <v>313</v>
       </c>
       <c r="D146" s="3">
         <v>123489</v>
@@ -10170,15 +10183,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="27.6">
-      <c r="A147" s="12" t="s">
+    <row r="147" spans="1:17" ht="28">
+      <c r="A147" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B147" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="C147" s="18" t="s">
-        <v>254</v>
+      <c r="B147" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D147" s="3">
         <v>151119</v>
@@ -10224,15 +10237,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="27.6">
-      <c r="A148" s="12" t="s">
+    <row r="148" spans="1:17" ht="28">
+      <c r="A148" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B148" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="C148" s="18" t="s">
-        <v>254</v>
+      <c r="B148" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D148" s="3">
         <v>26786</v>
@@ -10278,15 +10291,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="27.6">
-      <c r="A149" s="12" t="s">
+    <row r="149" spans="1:17" ht="28">
+      <c r="A149" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B149" s="19" t="s">
+      <c r="B149" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C149" s="12" t="s">
         <v>316</v>
-      </c>
-      <c r="C149" s="18" t="s">
-        <v>317</v>
       </c>
       <c r="D149" s="3">
         <v>333670</v>
@@ -10332,15 +10345,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="27.6">
-      <c r="A150" s="12" t="s">
+    <row r="150" spans="1:17" ht="28">
+      <c r="A150" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B150" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="C150" s="18" t="s">
-        <v>162</v>
+      <c r="B150" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D150" s="3">
         <v>1709</v>
@@ -10386,15 +10399,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="27.6">
-      <c r="A151" s="12" t="s">
+    <row r="151" spans="1:17" ht="28">
+      <c r="A151" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B151" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="C151" s="18" t="s">
-        <v>162</v>
+      <c r="B151" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D151" s="3">
         <v>2276</v>
@@ -10440,15 +10453,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="27.6">
-      <c r="A152" s="12" t="s">
+    <row r="152" spans="1:17" ht="28">
+      <c r="A152" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B152" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="C152" s="18" t="s">
-        <v>260</v>
+      <c r="B152" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="D152" s="3">
         <v>104508</v>
@@ -10494,15 +10507,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="27.6">
-      <c r="A153" s="12" t="s">
+    <row r="153" spans="1:17" ht="28">
+      <c r="A153" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B153" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="C153" s="18" t="s">
-        <v>174</v>
+      <c r="B153" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D153" s="3">
         <v>11270</v>
@@ -10548,15 +10561,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="27.6">
-      <c r="A154" s="12" t="s">
+    <row r="154" spans="1:17" ht="28">
+      <c r="A154" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B154" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="C154" s="18" t="s">
-        <v>200</v>
+      <c r="B154" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D154" s="3">
         <v>8336</v>
@@ -10602,15 +10615,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="27.6">
-      <c r="A155" s="12" t="s">
+    <row r="155" spans="1:17" ht="28">
+      <c r="A155" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B155" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="C155" s="18" t="s">
-        <v>200</v>
+      <c r="B155" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D155" s="3">
         <v>0</v>
@@ -10656,15 +10669,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="27.6">
-      <c r="A156" s="12" t="s">
+    <row r="156" spans="1:17" ht="28">
+      <c r="A156" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B156" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="C156" s="18" t="s">
-        <v>205</v>
+      <c r="B156" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D156" s="3">
         <v>26401</v>
@@ -10710,15 +10723,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="27.6">
-      <c r="A157" s="12" t="s">
+    <row r="157" spans="1:17" ht="28">
+      <c r="A157" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B157" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="C157" s="18" t="s">
-        <v>205</v>
+      <c r="B157" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D157" s="3">
         <v>5913</v>
@@ -10764,15 +10777,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="27.6">
-      <c r="A158" s="12" t="s">
+    <row r="158" spans="1:17" ht="28">
+      <c r="A158" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B158" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="C158" s="18" t="s">
-        <v>205</v>
+      <c r="B158" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D158" s="3">
         <v>6334</v>
@@ -10818,15 +10831,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="27.6">
-      <c r="A159" s="12" t="s">
+    <row r="159" spans="1:17" ht="28">
+      <c r="A159" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B159" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C159" s="18" t="s">
-        <v>301</v>
+      <c r="B159" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="D159" s="3">
         <v>8279</v>
@@ -10872,15 +10885,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="27.6">
-      <c r="A160" s="12" t="s">
+    <row r="160" spans="1:17" ht="28">
+      <c r="A160" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B160" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="C160" s="18" t="s">
-        <v>160</v>
+      <c r="B160" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D160" s="3">
         <v>7528</v>
@@ -10926,15 +10939,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="27.6">
-      <c r="A161" s="12" t="s">
+    <row r="161" spans="1:17" ht="28">
+      <c r="A161" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B161" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="C161" s="18" t="s">
-        <v>160</v>
+      <c r="B161" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D161" s="3">
         <v>5839</v>
@@ -10980,15 +10993,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="27.6">
-      <c r="A162" s="12" t="s">
+    <row r="162" spans="1:17" ht="28">
+      <c r="A162" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B162" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="C162" s="18" t="s">
-        <v>164</v>
+      <c r="B162" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D162" s="3">
         <v>18154</v>
@@ -11034,15 +11047,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="27.6">
-      <c r="A163" s="12" t="s">
+    <row r="163" spans="1:17" ht="28">
+      <c r="A163" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B163" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="C163" s="18" t="s">
-        <v>164</v>
+      <c r="B163" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D163" s="3">
         <v>7708</v>
@@ -11088,15 +11101,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="27.6">
-      <c r="A164" s="12" t="s">
+    <row r="164" spans="1:17" ht="28">
+      <c r="A164" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B164" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="C164" s="18" t="s">
-        <v>164</v>
+      <c r="B164" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D164" s="3">
         <v>96615</v>
@@ -11142,15 +11155,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="27.6">
-      <c r="A165" s="12" t="s">
+    <row r="165" spans="1:17" ht="28">
+      <c r="A165" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B165" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="C165" s="18" t="s">
-        <v>164</v>
+      <c r="B165" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D165" s="3">
         <v>2189</v>
@@ -11196,15 +11209,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="27.6">
-      <c r="A166" s="12" t="s">
+    <row r="166" spans="1:17" ht="28">
+      <c r="A166" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B166" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="C166" s="18" t="s">
-        <v>174</v>
+      <c r="B166" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D166" s="3">
         <v>5868</v>
@@ -11250,15 +11263,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="27.6">
-      <c r="A167" s="12" t="s">
+    <row r="167" spans="1:17" ht="28">
+      <c r="A167" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B167" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="C167" s="18" t="s">
-        <v>228</v>
+      <c r="B167" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D167" s="3">
         <v>8415</v>
@@ -11304,15 +11317,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="27.6">
-      <c r="A168" s="12" t="s">
+    <row r="168" spans="1:17" ht="28">
+      <c r="A168" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B168" s="19" t="s">
+      <c r="B168" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C168" s="12" t="s">
         <v>336</v>
-      </c>
-      <c r="C168" s="18" t="s">
-        <v>337</v>
       </c>
       <c r="D168" s="3">
         <v>16160</v>
@@ -11358,15 +11371,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="27.6">
-      <c r="A169" s="12" t="s">
+    <row r="169" spans="1:17" ht="28">
+      <c r="A169" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B169" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="C169" s="18" t="s">
-        <v>254</v>
+      <c r="B169" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D169" s="3">
         <v>61404</v>
@@ -11412,15 +11425,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="27.6">
-      <c r="A170" s="12" t="s">
+    <row r="170" spans="1:17" ht="28">
+      <c r="A170" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B170" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="C170" s="18" t="s">
-        <v>222</v>
+      <c r="B170" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="D170" s="3">
         <v>0</v>
@@ -11466,15 +11479,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="27.6">
-      <c r="A171" s="12" t="s">
+    <row r="171" spans="1:17" ht="28">
+      <c r="A171" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B171" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="C171" s="18" t="s">
-        <v>200</v>
+      <c r="B171" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D171" s="3">
         <v>61248</v>
@@ -11520,15 +11533,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="27.6">
-      <c r="A172" s="12" t="s">
+    <row r="172" spans="1:17" ht="28">
+      <c r="A172" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B172" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="C172" s="18" t="s">
-        <v>200</v>
+      <c r="B172" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D172" s="3">
         <v>228000</v>
@@ -11574,15 +11587,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="27.6">
-      <c r="A173" s="12" t="s">
+    <row r="173" spans="1:17" ht="28">
+      <c r="A173" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B173" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="C173" s="18" t="s">
-        <v>200</v>
+      <c r="B173" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D173" s="3">
         <v>235000</v>
@@ -11628,15 +11641,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="27.6">
-      <c r="A174" s="12" t="s">
+    <row r="174" spans="1:17" ht="28">
+      <c r="A174" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B174" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="C174" s="18" t="s">
-        <v>200</v>
+      <c r="B174" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D174" s="3">
         <v>330000</v>
@@ -11682,15 +11695,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="27.6">
-      <c r="A175" s="12" t="s">
+    <row r="175" spans="1:17" ht="28">
+      <c r="A175" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B175" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="C175" s="18" t="s">
-        <v>301</v>
+      <c r="B175" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="D175" s="3">
         <v>137806</v>
@@ -11736,15 +11749,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="27.6">
-      <c r="A176" s="12" t="s">
+    <row r="176" spans="1:17" ht="28">
+      <c r="A176" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B176" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="C176" s="18" t="s">
-        <v>168</v>
+      <c r="B176" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="D176" s="3">
         <v>196011</v>
@@ -11790,15 +11803,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="27.6">
-      <c r="A177" s="12" t="s">
+    <row r="177" spans="1:17" ht="28">
+      <c r="A177" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B177" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="C177" s="18" t="s">
-        <v>168</v>
+      <c r="B177" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="D177" s="3">
         <v>1500</v>
@@ -11844,15 +11857,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="27.6">
-      <c r="A178" s="12" t="s">
+    <row r="178" spans="1:17" ht="28">
+      <c r="A178" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B178" s="19" t="s">
+      <c r="B178" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C178" s="12" t="s">
         <v>347</v>
-      </c>
-      <c r="C178" s="18" t="s">
-        <v>348</v>
       </c>
       <c r="D178" s="3">
         <v>146820</v>
@@ -11898,15 +11911,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="27.6">
-      <c r="A179" s="12" t="s">
+    <row r="179" spans="1:17" ht="28">
+      <c r="A179" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B179" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="C179" s="18" t="s">
+      <c r="B179" s="13" t="s">
         <v>348</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="D179" s="3">
         <v>8331</v>
@@ -11952,15 +11965,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="27.6">
-      <c r="A180" s="12" t="s">
+    <row r="180" spans="1:17" ht="28">
+      <c r="A180" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B180" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="C180" s="18" t="s">
-        <v>348</v>
+      <c r="B180" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="D180" s="3">
         <v>57514</v>
@@ -12006,15 +12019,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="27.6">
-      <c r="A181" s="12" t="s">
+    <row r="181" spans="1:17" ht="28">
+      <c r="A181" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B181" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C181" s="18" t="s">
-        <v>228</v>
+      <c r="B181" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D181" s="3">
         <v>1562</v>
@@ -12060,15 +12073,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="27.6">
-      <c r="A182" s="12" t="s">
+    <row r="182" spans="1:17" ht="28">
+      <c r="A182" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B182" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="C182" s="18" t="s">
-        <v>337</v>
+      <c r="B182" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="D182" s="3">
         <v>789</v>
@@ -12114,15 +12127,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="27.6">
-      <c r="A183" s="12" t="s">
+    <row r="183" spans="1:17" ht="28">
+      <c r="A183" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B183" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="C183" s="18" t="s">
-        <v>274</v>
+      <c r="B183" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D183" s="3">
         <v>373537</v>
@@ -12168,15 +12181,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="27.6">
-      <c r="A184" s="12" t="s">
+    <row r="184" spans="1:17" ht="28">
+      <c r="A184" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B184" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="C184" s="18" t="s">
-        <v>274</v>
+      <c r="B184" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D184" s="3">
         <v>18323</v>
@@ -12222,15 +12235,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="27.6">
-      <c r="A185" s="12" t="s">
+    <row r="185" spans="1:17" ht="28">
+      <c r="A185" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B185" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="C185" s="18" t="s">
-        <v>274</v>
+      <c r="B185" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D185" s="3">
         <v>9314</v>
@@ -12276,15 +12289,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="27.6">
-      <c r="A186" s="12" t="s">
+    <row r="186" spans="1:17" ht="28">
+      <c r="A186" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B186" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="C186" s="18" t="s">
-        <v>228</v>
+      <c r="B186" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D186" s="3">
         <v>21000</v>
@@ -12330,15 +12343,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="27.6">
-      <c r="A187" s="12" t="s">
+    <row r="187" spans="1:17" ht="28">
+      <c r="A187" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B187" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="C187" s="18" t="s">
-        <v>286</v>
+      <c r="B187" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="D187" s="3">
         <v>1310</v>
@@ -12384,15 +12397,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="27.6">
-      <c r="A188" s="12" t="s">
+    <row r="188" spans="1:17" ht="28">
+      <c r="A188" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B188" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="C188" s="18" t="s">
-        <v>150</v>
+      <c r="B188" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D188" s="3">
         <v>17641</v>
@@ -12438,14 +12451,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="27.6">
-      <c r="A189" s="12" t="s">
+    <row r="189" spans="1:17" ht="28">
+      <c r="A189" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B189" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="C189" s="18" t="s">
+      <c r="B189" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="C189" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D189" s="3">
@@ -12492,15 +12505,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="27.6">
-      <c r="A190" s="12" t="s">
+    <row r="190" spans="1:17" ht="28">
+      <c r="A190" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B190" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="C190" s="18" t="s">
-        <v>301</v>
+      <c r="B190" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="D190" s="3">
         <v>53964</v>
@@ -12546,15 +12559,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="27.6">
-      <c r="A191" s="12" t="s">
+    <row r="191" spans="1:17" ht="28">
+      <c r="A191" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B191" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="C191" s="18" t="s">
-        <v>160</v>
+      <c r="B191" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D191" s="3">
         <v>49096</v>
@@ -12600,15 +12613,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="27.6">
-      <c r="A192" s="12" t="s">
+    <row r="192" spans="1:17" ht="28">
+      <c r="A192" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B192" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="C192" s="18" t="s">
-        <v>150</v>
+      <c r="B192" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D192" s="3">
         <v>421459</v>
@@ -12654,15 +12667,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="27.6">
-      <c r="A193" s="12" t="s">
+    <row r="193" spans="1:17" ht="28">
+      <c r="A193" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B193" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C193" s="18" t="s">
-        <v>150</v>
+      <c r="B193" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D193" s="3">
         <v>16013</v>
@@ -12708,15 +12721,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="27.6">
-      <c r="A194" s="12" t="s">
+    <row r="194" spans="1:17" ht="28">
+      <c r="A194" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B194" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="C194" s="18" t="s">
-        <v>150</v>
+      <c r="B194" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D194" s="3">
         <v>140058</v>
@@ -12762,15 +12775,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="27.6">
-      <c r="A195" s="12" t="s">
+    <row r="195" spans="1:17" ht="28">
+      <c r="A195" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B195" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="C195" s="18" t="s">
-        <v>150</v>
+      <c r="B195" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D195" s="3">
         <v>22732</v>
@@ -12816,15 +12829,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="27.6">
-      <c r="A196" s="12" t="s">
+    <row r="196" spans="1:17" ht="28">
+      <c r="A196" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B196" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="C196" s="18" t="s">
-        <v>150</v>
+      <c r="B196" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D196" s="3">
         <v>203148</v>
@@ -12870,15 +12883,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="27.6">
-      <c r="A197" s="12" t="s">
+    <row r="197" spans="1:17" ht="28">
+      <c r="A197" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B197" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="C197" s="18" t="s">
-        <v>150</v>
+      <c r="B197" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D197" s="3">
         <v>20383</v>
@@ -12924,15 +12937,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="27.6">
-      <c r="A198" s="12" t="s">
+    <row r="198" spans="1:17" ht="28">
+      <c r="A198" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B198" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="C198" s="18" t="s">
-        <v>150</v>
+      <c r="B198" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D198" s="3">
         <v>247859</v>
@@ -12978,15 +12991,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="27.6">
-      <c r="A199" s="12" t="s">
+    <row r="199" spans="1:17" ht="28">
+      <c r="A199" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B199" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="C199" s="18" t="s">
-        <v>150</v>
+      <c r="B199" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D199" s="3">
         <v>41274</v>
@@ -13032,15 +13045,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="27.6">
-      <c r="A200" s="12" t="s">
+    <row r="200" spans="1:17" ht="28">
+      <c r="A200" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B200" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="C200" s="18" t="s">
-        <v>150</v>
+      <c r="B200" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D200" s="3">
         <v>385782</v>
@@ -13086,15 +13099,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="27.6">
-      <c r="A201" s="12" t="s">
+    <row r="201" spans="1:17" ht="28">
+      <c r="A201" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B201" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="C201" s="18" t="s">
-        <v>150</v>
+      <c r="B201" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D201" s="3">
         <v>143171</v>
@@ -13140,15 +13153,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="27.6">
-      <c r="A202" s="12" t="s">
+    <row r="202" spans="1:17" ht="28">
+      <c r="A202" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B202" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="C202" s="18" t="s">
-        <v>150</v>
+      <c r="B202" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D202" s="3">
         <v>71909</v>
@@ -13194,15 +13207,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="27.6">
-      <c r="A203" s="12" t="s">
+    <row r="203" spans="1:17" ht="28">
+      <c r="A203" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B203" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="C203" s="18" t="s">
-        <v>150</v>
+      <c r="B203" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D203" s="3">
         <v>349272</v>
@@ -13248,15 +13261,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="27.6">
-      <c r="A204" s="12" t="s">
+    <row r="204" spans="1:17" ht="28">
+      <c r="A204" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B204" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="C204" s="18" t="s">
-        <v>150</v>
+      <c r="B204" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D204" s="3">
         <v>19706</v>
@@ -13302,15 +13315,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="27.6">
-      <c r="A205" s="12" t="s">
+    <row r="205" spans="1:17" ht="28">
+      <c r="A205" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B205" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="C205" s="18" t="s">
-        <v>200</v>
+      <c r="B205" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D205" s="3">
         <v>9397</v>
@@ -13356,15 +13369,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="27.6">
-      <c r="A206" s="12" t="s">
+    <row r="206" spans="1:17" ht="28">
+      <c r="A206" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B206" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="C206" s="18" t="s">
-        <v>200</v>
+      <c r="B206" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D206" s="3">
         <v>45832</v>
@@ -13410,15 +13423,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="27.6">
-      <c r="A207" s="12" t="s">
+    <row r="207" spans="1:17" ht="28">
+      <c r="A207" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B207" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="C207" s="18" t="s">
-        <v>200</v>
+      <c r="B207" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D207" s="3">
         <v>182000</v>
@@ -13464,15 +13477,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="27.6">
-      <c r="A208" s="12" t="s">
+    <row r="208" spans="1:17" ht="28">
+      <c r="A208" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B208" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="C208" s="18" t="s">
-        <v>200</v>
+      <c r="B208" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D208" s="3">
         <v>243900</v>
@@ -13518,15 +13531,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="27.6">
-      <c r="A209" s="12" t="s">
+    <row r="209" spans="1:17" ht="28">
+      <c r="A209" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B209" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="C209" s="18" t="s">
-        <v>200</v>
+      <c r="B209" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D209" s="3">
         <v>208400</v>
@@ -13572,15 +13585,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="27.6">
-      <c r="A210" s="12" t="s">
+    <row r="210" spans="1:17" ht="28">
+      <c r="A210" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B210" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="C210" s="18" t="s">
-        <v>200</v>
+      <c r="B210" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D210" s="3">
         <v>391500</v>
@@ -13626,15 +13639,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="27.6">
-      <c r="A211" s="12" t="s">
+    <row r="211" spans="1:17" ht="28">
+      <c r="A211" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B211" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="C211" s="18" t="s">
-        <v>200</v>
+      <c r="B211" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D211" s="3">
         <v>192280</v>
@@ -13680,15 +13693,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="212" spans="1:17" ht="41.4">
-      <c r="A212" s="12" t="s">
+    <row r="212" spans="1:17" ht="42">
+      <c r="A212" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B212" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="C212" s="18" t="s">
-        <v>200</v>
+      <c r="B212" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D212" s="3">
         <v>31602</v>
@@ -13734,15 +13747,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:17" ht="27.6">
-      <c r="A213" s="12" t="s">
+    <row r="213" spans="1:17" ht="28">
+      <c r="A213" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B213" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="C213" s="18" t="s">
-        <v>200</v>
+      <c r="B213" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D213" s="3">
         <v>140035</v>
@@ -13788,15 +13801,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="1:17" ht="27.6">
-      <c r="A214" s="12" t="s">
+    <row r="214" spans="1:17" ht="28">
+      <c r="A214" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B214" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="C214" s="18" t="s">
-        <v>200</v>
+      <c r="B214" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C214" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D214" s="3">
         <v>67441</v>
@@ -13842,15 +13855,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="27.6">
-      <c r="A215" s="12" t="s">
+    <row r="215" spans="1:17" ht="28">
+      <c r="A215" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B215" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="C215" s="18" t="s">
-        <v>200</v>
+      <c r="B215" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C215" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D215" s="3">
         <v>88300</v>
@@ -13896,15 +13909,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:17" ht="27.6">
-      <c r="A216" s="12" t="s">
+    <row r="216" spans="1:17" ht="28">
+      <c r="A216" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B216" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="C216" s="18" t="s">
-        <v>200</v>
+      <c r="B216" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D216" s="3">
         <v>49200</v>
@@ -13950,15 +13963,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="41.4">
-      <c r="A217" s="12" t="s">
+    <row r="217" spans="1:17" ht="28">
+      <c r="A217" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B217" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="C217" s="18" t="s">
-        <v>222</v>
+      <c r="B217" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="D217" s="3">
         <v>74275</v>
@@ -14004,15 +14017,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="27.6">
-      <c r="A218" s="12" t="s">
+    <row r="218" spans="1:17" ht="28">
+      <c r="A218" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B218" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="C218" s="18" t="s">
-        <v>205</v>
+      <c r="B218" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D218" s="3">
         <v>0</v>
@@ -14058,15 +14071,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:17" ht="27.6">
-      <c r="A219" s="12" t="s">
+    <row r="219" spans="1:17" ht="28">
+      <c r="A219" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B219" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="C219" s="18" t="s">
-        <v>205</v>
+      <c r="B219" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D219" s="3">
         <v>57180</v>
@@ -14112,15 +14125,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="27.6">
-      <c r="A220" s="12" t="s">
+    <row r="220" spans="1:17" ht="28">
+      <c r="A220" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B220" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="C220" s="18" t="s">
-        <v>205</v>
+      <c r="B220" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D220" s="3">
         <v>35679</v>
@@ -14166,15 +14179,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="27.6">
-      <c r="A221" s="12" t="s">
+    <row r="221" spans="1:17" ht="28">
+      <c r="A221" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B221" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="C221" s="18" t="s">
-        <v>301</v>
+      <c r="B221" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C221" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="D221" s="3">
         <v>118867</v>
@@ -14220,15 +14233,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="27.6">
-      <c r="A222" s="12" t="s">
+    <row r="222" spans="1:17" ht="28">
+      <c r="A222" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B222" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="C222" s="18" t="s">
-        <v>301</v>
+      <c r="B222" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="D222" s="3">
         <v>74634</v>
@@ -14274,15 +14287,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="27.6">
-      <c r="A223" s="12" t="s">
+    <row r="223" spans="1:17" ht="28">
+      <c r="A223" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B223" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="C223" s="18" t="s">
-        <v>301</v>
+      <c r="B223" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C223" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="D223" s="3">
         <v>72254</v>
@@ -14328,15 +14341,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="224" spans="1:17" ht="27.6">
-      <c r="A224" s="12" t="s">
+    <row r="224" spans="1:17" ht="28">
+      <c r="A224" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B224" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="C224" s="18" t="s">
-        <v>168</v>
+      <c r="B224" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="D224" s="3">
         <v>3944</v>
@@ -14382,15 +14395,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="27.6">
-      <c r="A225" s="12" t="s">
+    <row r="225" spans="1:17" ht="28">
+      <c r="A225" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B225" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="C225" s="18" t="s">
-        <v>160</v>
+      <c r="B225" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D225" s="3">
         <v>215172</v>
@@ -14436,15 +14449,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="27.6">
-      <c r="A226" s="12" t="s">
+    <row r="226" spans="1:17" ht="28">
+      <c r="A226" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B226" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="C226" s="18" t="s">
-        <v>160</v>
+      <c r="B226" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D226" s="3">
         <v>206321</v>
@@ -14490,15 +14503,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="227" spans="1:17" ht="27.6">
-      <c r="A227" s="12" t="s">
+    <row r="227" spans="1:17" ht="28">
+      <c r="A227" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B227" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="C227" s="18" t="s">
-        <v>160</v>
+      <c r="B227" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D227" s="3">
         <v>8667</v>
@@ -14544,15 +14557,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:17" ht="27.6">
-      <c r="A228" s="12" t="s">
+    <row r="228" spans="1:17" ht="28">
+      <c r="A228" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B228" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="C228" s="18" t="s">
-        <v>160</v>
+      <c r="B228" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D228" s="3">
         <v>0</v>
@@ -14598,15 +14611,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="229" spans="1:17" ht="27.6">
-      <c r="A229" s="12" t="s">
+    <row r="229" spans="1:17" ht="28">
+      <c r="A229" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B229" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="C229" s="18" t="s">
-        <v>160</v>
+      <c r="B229" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D229" s="3">
         <v>100080</v>
@@ -14652,15 +14665,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:17" ht="27.6">
-      <c r="A230" s="12" t="s">
+    <row r="230" spans="1:17" ht="28">
+      <c r="A230" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B230" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="C230" s="18" t="s">
-        <v>160</v>
+      <c r="B230" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D230" s="3">
         <v>52409</v>
@@ -14706,15 +14719,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="231" spans="1:17" ht="27.6">
-      <c r="A231" s="12" t="s">
+    <row r="231" spans="1:17" ht="28">
+      <c r="A231" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B231" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="C231" s="18" t="s">
-        <v>160</v>
+      <c r="B231" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C231" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D231" s="3">
         <v>65915</v>
@@ -14760,15 +14773,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="232" spans="1:17" ht="27.6">
-      <c r="A232" s="12" t="s">
+    <row r="232" spans="1:17" ht="28">
+      <c r="A232" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B232" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="C232" s="18" t="s">
-        <v>160</v>
+      <c r="B232" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D232" s="3">
         <v>481241</v>
@@ -14814,15 +14827,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="233" spans="1:17" ht="41.4">
-      <c r="A233" s="12" t="s">
+    <row r="233" spans="1:17" ht="28">
+      <c r="A233" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B233" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="C233" s="18" t="s">
-        <v>160</v>
+      <c r="B233" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D233" s="3">
         <v>730490</v>
@@ -14868,15 +14881,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="234" spans="1:17" ht="27.6">
-      <c r="A234" s="12" t="s">
+    <row r="234" spans="1:17" ht="28">
+      <c r="A234" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B234" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="C234" s="18" t="s">
-        <v>164</v>
+      <c r="B234" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D234" s="3">
         <v>6944</v>
@@ -14922,15 +14935,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:17" ht="27.6">
-      <c r="A235" s="12" t="s">
+    <row r="235" spans="1:17" ht="28">
+      <c r="A235" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B235" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="C235" s="18" t="s">
-        <v>164</v>
+      <c r="B235" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C235" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D235" s="3">
         <v>80863</v>
@@ -14976,15 +14989,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="236" spans="1:17" ht="27.6">
-      <c r="A236" s="12" t="s">
+    <row r="236" spans="1:17" ht="28">
+      <c r="A236" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B236" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="C236" s="18" t="s">
-        <v>160</v>
+      <c r="B236" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D236" s="3">
         <v>24119</v>
@@ -15030,15 +15043,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:17" ht="27.6">
-      <c r="A237" s="12" t="s">
+    <row r="237" spans="1:17" ht="28">
+      <c r="A237" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B237" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="C237" s="18" t="s">
-        <v>164</v>
+      <c r="B237" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D237" s="3">
         <v>3237</v>
@@ -15084,15 +15097,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:17" ht="27.6">
-      <c r="A238" s="12" t="s">
+    <row r="238" spans="1:17" ht="28">
+      <c r="A238" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B238" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="C238" s="18" t="s">
-        <v>164</v>
+      <c r="B238" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D238" s="3">
         <v>3797</v>
@@ -15138,15 +15151,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="1:17" ht="27.6">
-      <c r="A239" s="12" t="s">
+    <row r="239" spans="1:17" ht="28">
+      <c r="A239" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B239" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="C239" s="18" t="s">
-        <v>164</v>
+      <c r="B239" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D239" s="3">
         <v>18423</v>
@@ -15192,15 +15205,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:17" ht="27.6">
-      <c r="A240" s="12" t="s">
+    <row r="240" spans="1:17" ht="28">
+      <c r="A240" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B240" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="C240" s="18" t="s">
-        <v>254</v>
+      <c r="B240" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D240" s="3">
         <v>15113</v>
@@ -15246,15 +15259,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="241" spans="1:17" ht="27.6">
-      <c r="A241" s="12" t="s">
+    <row r="241" spans="1:17" ht="28">
+      <c r="A241" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B241" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="C241" s="18" t="s">
-        <v>254</v>
+      <c r="B241" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D241" s="3">
         <v>4120</v>
@@ -15300,15 +15313,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="27.6">
-      <c r="A242" s="12" t="s">
+    <row r="242" spans="1:17" ht="28">
+      <c r="A242" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B242" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="C242" s="18" t="s">
-        <v>254</v>
+      <c r="B242" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D242" s="3">
         <v>28156</v>
@@ -15354,15 +15367,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:17" ht="27.6">
-      <c r="A243" s="12" t="s">
+    <row r="243" spans="1:17" ht="28">
+      <c r="A243" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B243" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="C243" s="18" t="s">
-        <v>274</v>
+      <c r="B243" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C243" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D243" s="3">
         <v>66658</v>
@@ -15408,15 +15421,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="27.6">
-      <c r="A244" s="12" t="s">
+    <row r="244" spans="1:17" ht="28">
+      <c r="A244" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B244" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="C244" s="18" t="s">
-        <v>274</v>
+      <c r="B244" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="C244" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D244" s="3">
         <v>36393</v>
@@ -15462,15 +15475,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="245" spans="1:17" ht="27.6">
-      <c r="A245" s="12" t="s">
+    <row r="245" spans="1:17" ht="28">
+      <c r="A245" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B245" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="C245" s="18" t="s">
-        <v>274</v>
+      <c r="B245" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C245" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D245" s="3">
         <v>323455</v>
@@ -15516,15 +15529,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:17" ht="27.6">
-      <c r="A246" s="12" t="s">
+    <row r="246" spans="1:17" ht="28">
+      <c r="A246" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B246" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="C246" s="18" t="s">
-        <v>274</v>
+      <c r="B246" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D246" s="3">
         <v>93363</v>
@@ -15570,15 +15583,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:17" ht="27.6">
-      <c r="A247" s="12" t="s">
+    <row r="247" spans="1:17" ht="28">
+      <c r="A247" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B247" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="C247" s="18" t="s">
-        <v>274</v>
+      <c r="B247" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D247" s="3">
         <v>35811</v>
@@ -15624,15 +15637,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="1:17" ht="27.6">
-      <c r="A248" s="12" t="s">
+    <row r="248" spans="1:17" ht="28">
+      <c r="A248" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B248" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="C248" s="18" t="s">
-        <v>274</v>
+      <c r="B248" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D248" s="3">
         <v>25881</v>
@@ -15678,15 +15691,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="27.6">
-      <c r="A249" s="12" t="s">
+    <row r="249" spans="1:17" ht="28">
+      <c r="A249" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B249" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="C249" s="18" t="s">
-        <v>274</v>
+      <c r="B249" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="C249" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D249" s="3">
         <v>202613</v>
@@ -15732,15 +15745,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="27.6">
-      <c r="A250" s="12" t="s">
+    <row r="250" spans="1:17" ht="28">
+      <c r="A250" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B250" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="C250" s="18" t="s">
-        <v>274</v>
+      <c r="B250" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D250" s="3">
         <v>55013</v>
@@ -15786,15 +15799,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="251" spans="1:17" ht="27.6">
-      <c r="A251" s="12" t="s">
+    <row r="251" spans="1:17" ht="28">
+      <c r="A251" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B251" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="C251" s="18" t="s">
-        <v>274</v>
+      <c r="B251" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D251" s="3">
         <v>178457</v>
@@ -15840,15 +15853,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="252" spans="1:17" ht="27.6">
-      <c r="A252" s="12" t="s">
+    <row r="252" spans="1:17" ht="28">
+      <c r="A252" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B252" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="C252" s="18" t="s">
-        <v>228</v>
+      <c r="B252" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D252" s="3">
         <v>9174</v>
@@ -15894,15 +15907,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="27.6">
-      <c r="A253" s="12" t="s">
+    <row r="253" spans="1:17" ht="28">
+      <c r="A253" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B253" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="C253" s="18" t="s">
-        <v>228</v>
+      <c r="B253" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D253" s="3">
         <v>991</v>
@@ -15948,15 +15961,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="254" spans="1:17" ht="27.6">
-      <c r="A254" s="12" t="s">
+    <row r="254" spans="1:17" ht="28">
+      <c r="A254" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B254" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="C254" s="18" t="s">
-        <v>228</v>
+      <c r="B254" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D254" s="3">
         <v>12197</v>
@@ -16002,15 +16015,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="255" spans="1:17" ht="27.6">
-      <c r="A255" s="12" t="s">
+    <row r="255" spans="1:17" ht="28">
+      <c r="A255" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B255" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="C255" s="18" t="s">
-        <v>162</v>
+      <c r="B255" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C255" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D255" s="3">
         <v>10971</v>
@@ -16056,15 +16069,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:17" ht="27.6">
-      <c r="A256" s="12" t="s">
+    <row r="256" spans="1:17" ht="28">
+      <c r="A256" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B256" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="C256" s="18" t="s">
-        <v>162</v>
+      <c r="B256" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="C256" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D256" s="3">
         <v>5905</v>
@@ -16110,15 +16123,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:17" ht="27.6">
-      <c r="A257" s="12" t="s">
+    <row r="257" spans="1:17" ht="28">
+      <c r="A257" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B257" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="C257" s="18" t="s">
-        <v>274</v>
+      <c r="B257" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C257" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D257" s="3">
         <v>118237</v>
@@ -16164,15 +16177,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="258" spans="1:17" ht="27.6">
-      <c r="A258" s="12" t="s">
+    <row r="258" spans="1:17" ht="28">
+      <c r="A258" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B258" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="C258" s="18" t="s">
-        <v>189</v>
+      <c r="B258" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="D258" s="3">
         <v>23968</v>
@@ -16218,15 +16231,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="259" spans="1:17" ht="27.6">
-      <c r="A259" s="12" t="s">
+    <row r="259" spans="1:17" ht="28">
+      <c r="A259" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B259" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="C259" s="18" t="s">
-        <v>313</v>
+      <c r="B259" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="C259" s="12" t="s">
+        <v>312</v>
       </c>
       <c r="D259" s="3">
         <v>17877</v>
@@ -16272,15 +16285,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:17" ht="27.6">
-      <c r="A260" s="12" t="s">
+    <row r="260" spans="1:17" ht="28">
+      <c r="A260" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B260" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="C260" s="18" t="s">
-        <v>200</v>
+      <c r="B260" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D260" s="3">
         <v>406000</v>
@@ -16326,15 +16339,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="261" spans="1:17" ht="27.6">
-      <c r="A261" s="12" t="s">
+    <row r="261" spans="1:17" ht="28">
+      <c r="A261" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B261" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="C261" s="18" t="s">
-        <v>274</v>
+      <c r="B261" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="C261" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D261" s="3">
         <v>11296</v>
@@ -16380,15 +16393,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="1:17" ht="27.6">
-      <c r="A262" s="12" t="s">
+    <row r="262" spans="1:17" ht="28">
+      <c r="A262" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B262" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="C262" s="18" t="s">
-        <v>160</v>
+      <c r="B262" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D262" s="3">
         <v>216446</v>
@@ -16434,15 +16447,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="263" spans="1:17" ht="27.6">
-      <c r="A263" s="12" t="s">
+    <row r="263" spans="1:17" ht="28">
+      <c r="A263" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B263" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="C263" s="18" t="s">
-        <v>150</v>
+      <c r="B263" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D263" s="3">
         <v>35058</v>
@@ -16488,15 +16501,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="1:17" ht="27.6">
-      <c r="A264" s="12" t="s">
+    <row r="264" spans="1:17" ht="28">
+      <c r="A264" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B264" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="C264" s="18" t="s">
-        <v>150</v>
+      <c r="B264" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="C264" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D264" s="3">
         <v>147262</v>
@@ -16542,15 +16555,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="265" spans="1:17" ht="27.6">
-      <c r="A265" s="12" t="s">
+    <row r="265" spans="1:17" ht="28">
+      <c r="A265" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B265" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="C265" s="18" t="s">
-        <v>150</v>
+      <c r="B265" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="C265" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D265" s="3">
         <v>74279</v>
@@ -16596,15 +16609,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="266" spans="1:17" ht="27.6">
-      <c r="A266" s="12" t="s">
+    <row r="266" spans="1:17" ht="28">
+      <c r="A266" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B266" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="C266" s="18" t="s">
-        <v>150</v>
+      <c r="B266" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D266" s="3">
         <v>204497</v>
@@ -16650,15 +16663,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="267" spans="1:17" ht="27.6">
-      <c r="A267" s="12" t="s">
+    <row r="267" spans="1:17" ht="28">
+      <c r="A267" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B267" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="C267" s="18" t="s">
-        <v>150</v>
+      <c r="B267" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D267" s="3">
         <v>35714</v>
@@ -16704,15 +16717,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:17" ht="27.6">
-      <c r="A268" s="12" t="s">
+    <row r="268" spans="1:17" ht="28">
+      <c r="A268" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B268" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="C268" s="18" t="s">
-        <v>200</v>
+      <c r="B268" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C268" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D268" s="3">
         <v>2214</v>
@@ -16758,15 +16771,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="269" spans="1:17" ht="27.6">
-      <c r="A269" s="12" t="s">
+    <row r="269" spans="1:17" ht="28">
+      <c r="A269" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B269" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="C269" s="18" t="s">
-        <v>254</v>
+      <c r="B269" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="C269" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D269" s="3">
         <v>0</v>
@@ -16812,15 +16825,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="1:17" ht="27.6">
-      <c r="A270" s="12" t="s">
+    <row r="270" spans="1:17" ht="28">
+      <c r="A270" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B270" s="19" t="s">
-        <v>440</v>
-      </c>
-      <c r="C270" s="18" t="s">
-        <v>174</v>
+      <c r="B270" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D270" s="3">
         <v>11251</v>
@@ -16866,15 +16879,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="271" spans="1:17" ht="27.6">
-      <c r="A271" s="12" t="s">
+    <row r="271" spans="1:17" ht="28">
+      <c r="A271" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B271" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="C271" s="18" t="s">
-        <v>162</v>
+      <c r="B271" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="C271" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D271" s="3">
         <v>19006</v>
@@ -16920,15 +16933,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:17" ht="27.6">
-      <c r="A272" s="12" t="s">
+    <row r="272" spans="1:17" ht="28">
+      <c r="A272" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B272" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="C272" s="18" t="s">
-        <v>228</v>
+      <c r="B272" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="C272" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D272" s="3">
         <v>8741</v>
@@ -16974,15 +16987,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:17" ht="27.6">
-      <c r="A273" s="12" t="s">
+    <row r="273" spans="1:17" ht="28">
+      <c r="A273" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B273" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="C273" s="18" t="s">
-        <v>228</v>
+      <c r="B273" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="C273" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D273" s="3">
         <v>6356</v>
@@ -17028,15 +17041,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:17" ht="27.6">
-      <c r="A274" s="12" t="s">
+    <row r="274" spans="1:17" ht="28">
+      <c r="A274" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B274" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="C274" s="18" t="s">
-        <v>164</v>
+      <c r="B274" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="C274" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D274" s="3">
         <v>39567</v>
@@ -17082,15 +17095,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="1:17" ht="27.6">
-      <c r="A275" s="12" t="s">
+    <row r="275" spans="1:17" ht="28">
+      <c r="A275" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B275" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="C275" s="18" t="s">
-        <v>222</v>
+      <c r="B275" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="C275" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="D275" s="3">
         <v>1002</v>
@@ -17136,15 +17149,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:17" ht="27.6">
-      <c r="A276" s="12" t="s">
+    <row r="276" spans="1:17" ht="28">
+      <c r="A276" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B276" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="C276" s="18" t="s">
-        <v>274</v>
+      <c r="B276" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="C276" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D276" s="3">
         <v>2229</v>
@@ -17190,15 +17203,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:17" ht="27.6">
-      <c r="A277" s="12" t="s">
+    <row r="277" spans="1:17" ht="28">
+      <c r="A277" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B277" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="C277" s="18" t="s">
-        <v>150</v>
+      <c r="B277" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D277" s="3">
         <v>8108</v>
@@ -17244,15 +17257,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="1:17" ht="27.6">
-      <c r="A278" s="12" t="s">
+    <row r="278" spans="1:17" ht="28">
+      <c r="A278" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B278" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="C278" s="18" t="s">
-        <v>150</v>
+      <c r="B278" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D278" s="3">
         <v>19100</v>
@@ -17298,15 +17311,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="279" spans="1:17" ht="27.6">
-      <c r="A279" s="12" t="s">
+    <row r="279" spans="1:17" ht="28">
+      <c r="A279" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B279" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="C279" s="18" t="s">
-        <v>150</v>
+      <c r="B279" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="C279" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D279" s="3">
         <v>22450</v>
@@ -17352,15 +17365,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="280" spans="1:17" ht="27.6">
-      <c r="A280" s="12" t="s">
+    <row r="280" spans="1:17" ht="28">
+      <c r="A280" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B280" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="C280" s="18" t="s">
-        <v>150</v>
+      <c r="B280" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D280" s="3">
         <v>200490</v>
@@ -17406,15 +17419,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="281" spans="1:17" ht="27.6">
-      <c r="A281" s="12" t="s">
+    <row r="281" spans="1:17" ht="28">
+      <c r="A281" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B281" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="C281" s="18" t="s">
-        <v>200</v>
+      <c r="B281" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="C281" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D281" s="3">
         <v>5481</v>
@@ -17460,15 +17473,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="282" spans="1:17" ht="27.6">
-      <c r="A282" s="12" t="s">
+    <row r="282" spans="1:17" ht="28">
+      <c r="A282" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B282" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="C282" s="18" t="s">
-        <v>200</v>
+      <c r="B282" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D282" s="3">
         <v>7620</v>
@@ -17514,15 +17527,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:17" ht="27.6">
-      <c r="A283" s="12" t="s">
+    <row r="283" spans="1:17" ht="28">
+      <c r="A283" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B283" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="C283" s="18" t="s">
-        <v>200</v>
+      <c r="B283" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C283" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D283" s="3">
         <v>14072</v>
@@ -17568,15 +17581,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="284" spans="1:17" ht="27.6">
-      <c r="A284" s="12" t="s">
+    <row r="284" spans="1:17" ht="28">
+      <c r="A284" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B284" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="C284" s="18" t="s">
-        <v>200</v>
+      <c r="B284" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="C284" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D284" s="3">
         <v>3558</v>
@@ -17622,15 +17635,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:17" ht="27.6">
-      <c r="A285" s="12" t="s">
+    <row r="285" spans="1:17" ht="28">
+      <c r="A285" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B285" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="C285" s="18" t="s">
-        <v>301</v>
+      <c r="B285" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="C285" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="D285" s="3">
         <v>21812</v>
@@ -17676,15 +17689,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="286" spans="1:17" ht="27.6">
-      <c r="A286" s="12" t="s">
+    <row r="286" spans="1:17" ht="28">
+      <c r="A286" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B286" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="C286" s="18" t="s">
-        <v>301</v>
+      <c r="B286" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="C286" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="D286" s="3">
         <v>5738</v>
@@ -17730,15 +17743,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="287" spans="1:17" ht="27.6">
-      <c r="A287" s="12" t="s">
+    <row r="287" spans="1:17" ht="28">
+      <c r="A287" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B287" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="C287" s="18" t="s">
-        <v>317</v>
+      <c r="B287" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C287" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="D287" s="3">
         <v>54001</v>
@@ -17784,15 +17797,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="288" spans="1:17" ht="27.6">
-      <c r="A288" s="12" t="s">
+    <row r="288" spans="1:17" ht="28">
+      <c r="A288" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B288" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="C288" s="18" t="s">
-        <v>317</v>
+      <c r="B288" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="D288" s="3">
         <v>14605</v>
@@ -17838,15 +17851,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="289" spans="1:17" ht="27.6">
-      <c r="A289" s="12" t="s">
+    <row r="289" spans="1:17" ht="28">
+      <c r="A289" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B289" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="C289" s="18" t="s">
-        <v>317</v>
+      <c r="B289" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C289" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="D289" s="3">
         <v>518</v>
@@ -17892,15 +17905,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="290" spans="1:17" ht="27.6">
-      <c r="A290" s="12" t="s">
+    <row r="290" spans="1:17" ht="28">
+      <c r="A290" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B290" s="19" t="s">
-        <v>460</v>
-      </c>
-      <c r="C290" s="18" t="s">
-        <v>317</v>
+      <c r="B290" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="C290" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="D290" s="3">
         <v>16550</v>
@@ -17946,15 +17959,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="291" spans="1:17" ht="27.6">
-      <c r="A291" s="12" t="s">
+    <row r="291" spans="1:17" ht="28">
+      <c r="A291" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B291" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="C291" s="18" t="s">
-        <v>317</v>
+      <c r="B291" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C291" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="D291" s="3">
         <v>3251</v>
@@ -18000,15 +18013,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:17" ht="27.6">
-      <c r="A292" s="12" t="s">
+    <row r="292" spans="1:17" ht="28">
+      <c r="A292" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B292" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="C292" s="18" t="s">
-        <v>168</v>
+      <c r="B292" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="D292" s="3">
         <v>5243</v>
@@ -18054,15 +18067,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="1:17" ht="27.6">
-      <c r="A293" s="12" t="s">
+    <row r="293" spans="1:17" ht="28">
+      <c r="A293" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B293" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="C293" s="18" t="s">
-        <v>168</v>
+      <c r="B293" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="C293" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="D293" s="3">
         <v>6329</v>
@@ -18108,15 +18121,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:17" ht="27.6">
-      <c r="A294" s="12" t="s">
+    <row r="294" spans="1:17" ht="28">
+      <c r="A294" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B294" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="C294" s="18" t="s">
-        <v>168</v>
+      <c r="B294" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="C294" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="D294" s="3">
         <v>13259</v>
@@ -18162,15 +18175,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="295" spans="1:17" ht="27.6">
-      <c r="A295" s="12" t="s">
+    <row r="295" spans="1:17" ht="28">
+      <c r="A295" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B295" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="C295" s="18" t="s">
-        <v>160</v>
+      <c r="B295" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="C295" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D295" s="3">
         <v>346853</v>
@@ -18216,15 +18229,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="296" spans="1:17" ht="27.6">
-      <c r="A296" s="12" t="s">
+    <row r="296" spans="1:17" ht="28">
+      <c r="A296" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B296" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="C296" s="18" t="s">
-        <v>160</v>
+      <c r="B296" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="C296" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D296" s="3">
         <v>7412</v>
@@ -18270,15 +18283,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="297" spans="1:17" ht="27.6">
-      <c r="A297" s="12" t="s">
+    <row r="297" spans="1:17" ht="28">
+      <c r="A297" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B297" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="C297" s="18" t="s">
-        <v>164</v>
+      <c r="B297" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C297" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D297" s="3">
         <v>17071</v>
@@ -18324,15 +18337,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="298" spans="1:17" ht="27.6">
-      <c r="A298" s="12" t="s">
+    <row r="298" spans="1:17" ht="28">
+      <c r="A298" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B298" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="C298" s="18" t="s">
-        <v>164</v>
+      <c r="B298" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="C298" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D298" s="3">
         <v>11798</v>
@@ -18378,15 +18391,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="299" spans="1:17" ht="27.6">
-      <c r="A299" s="12" t="s">
+    <row r="299" spans="1:17" ht="28">
+      <c r="A299" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B299" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="C299" s="18" t="s">
-        <v>164</v>
+      <c r="B299" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="C299" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D299" s="3">
         <v>12012</v>
@@ -18432,15 +18445,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="300" spans="1:17" ht="27.6">
-      <c r="A300" s="12" t="s">
+    <row r="300" spans="1:17" ht="28">
+      <c r="A300" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B300" s="19" t="s">
-        <v>470</v>
-      </c>
-      <c r="C300" s="18" t="s">
-        <v>337</v>
+      <c r="B300" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="C300" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="D300" s="3">
         <v>61645</v>
@@ -18486,15 +18499,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="301" spans="1:17" ht="27.6">
-      <c r="A301" s="12" t="s">
+    <row r="301" spans="1:17" ht="28">
+      <c r="A301" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B301" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="C301" s="18" t="s">
-        <v>254</v>
+      <c r="B301" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="C301" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D301" s="3">
         <v>17233</v>
@@ -18540,15 +18553,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="302" spans="1:17" ht="27.6">
-      <c r="A302" s="12" t="s">
+    <row r="302" spans="1:17" ht="28">
+      <c r="A302" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B302" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="C302" s="18" t="s">
-        <v>254</v>
+      <c r="B302" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="C302" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D302" s="3">
         <v>9122</v>
@@ -18594,15 +18607,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="303" spans="1:17" ht="27.6">
-      <c r="A303" s="12" t="s">
+    <row r="303" spans="1:17" ht="28">
+      <c r="A303" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B303" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="C303" s="18" t="s">
-        <v>174</v>
+      <c r="B303" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="C303" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D303" s="3">
         <v>4633</v>
@@ -18648,15 +18661,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="304" spans="1:17" ht="27.6">
-      <c r="A304" s="12" t="s">
+    <row r="304" spans="1:17" ht="28">
+      <c r="A304" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B304" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="C304" s="18" t="s">
-        <v>174</v>
+      <c r="B304" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="C304" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D304" s="3">
         <v>1778</v>
@@ -18702,15 +18715,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="305" spans="1:17" ht="27.6">
-      <c r="A305" s="12" t="s">
+    <row r="305" spans="1:17" ht="28">
+      <c r="A305" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B305" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="C305" s="18" t="s">
-        <v>174</v>
+      <c r="B305" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="C305" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D305" s="3">
         <v>5227</v>
@@ -18756,15 +18769,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="306" spans="1:17" ht="27.6">
-      <c r="A306" s="12" t="s">
+    <row r="306" spans="1:17" ht="28">
+      <c r="A306" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B306" s="19" t="s">
-        <v>476</v>
-      </c>
-      <c r="C306" s="18" t="s">
-        <v>189</v>
+      <c r="B306" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="C306" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="D306" s="3">
         <v>15024</v>
@@ -18810,15 +18823,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="307" spans="1:17" ht="27.6">
-      <c r="A307" s="12" t="s">
+    <row r="307" spans="1:17" ht="28">
+      <c r="A307" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B307" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="C307" s="18" t="s">
-        <v>337</v>
+      <c r="B307" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C307" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="D307" s="3">
         <v>214700</v>
@@ -18864,15 +18877,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:17" ht="27.6">
-      <c r="A308" s="12" t="s">
+    <row r="308" spans="1:17" ht="28">
+      <c r="A308" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B308" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="C308" s="18" t="s">
-        <v>254</v>
+      <c r="B308" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="C308" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D308" s="3">
         <v>710100</v>
@@ -18918,15 +18931,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="309" spans="1:17" ht="27.6">
-      <c r="A309" s="12" t="s">
+    <row r="309" spans="1:17" ht="28">
+      <c r="A309" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B309" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="C309" s="18" t="s">
-        <v>254</v>
+      <c r="B309" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="C309" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D309" s="3">
         <v>240773</v>
@@ -18972,15 +18985,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="310" spans="1:17" ht="27.6">
-      <c r="A310" s="12" t="s">
+    <row r="310" spans="1:17" ht="28">
+      <c r="A310" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B310" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="C310" s="18" t="s">
-        <v>164</v>
+      <c r="B310" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="C310" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D310" s="3">
         <v>103501</v>
@@ -19026,15 +19039,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="311" spans="1:17" ht="27.6">
-      <c r="A311" s="12" t="s">
+    <row r="311" spans="1:17" ht="28">
+      <c r="A311" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B311" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="C311" s="18" t="s">
-        <v>274</v>
+      <c r="B311" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="C311" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D311" s="3">
         <v>509671</v>
@@ -19080,15 +19093,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:17" ht="27.6">
-      <c r="A312" s="12" t="s">
+    <row r="312" spans="1:17" ht="28">
+      <c r="A312" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B312" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="C312" s="18" t="s">
-        <v>160</v>
+      <c r="B312" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C312" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D312" s="3">
         <v>23280</v>
@@ -19134,15 +19147,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="313" spans="1:17" ht="27.6">
-      <c r="A313" s="12" t="s">
+    <row r="313" spans="1:17" ht="28">
+      <c r="A313" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B313" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="C313" s="18" t="s">
-        <v>160</v>
+      <c r="B313" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="C313" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D313" s="3">
         <v>72900</v>
@@ -19188,15 +19201,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="314" spans="1:17" ht="27.6">
-      <c r="A314" s="12" t="s">
+    <row r="314" spans="1:17" ht="28">
+      <c r="A314" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B314" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="C314" s="18" t="s">
-        <v>200</v>
+      <c r="B314" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="C314" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D314" s="3">
         <v>2075</v>
@@ -19242,15 +19255,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="315" spans="1:17" ht="41.4">
-      <c r="A315" s="12" t="s">
+    <row r="315" spans="1:17" ht="42">
+      <c r="A315" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B315" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="C315" s="18" t="s">
-        <v>200</v>
+      <c r="B315" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="C315" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D315" s="3">
         <v>13558</v>
@@ -19296,15 +19309,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="316" spans="1:17" ht="27.6">
-      <c r="A316" s="12" t="s">
+    <row r="316" spans="1:17" ht="28">
+      <c r="A316" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B316" s="19" t="s">
-        <v>486</v>
-      </c>
-      <c r="C316" s="18" t="s">
-        <v>150</v>
+      <c r="B316" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="C316" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D316" s="3">
         <v>0</v>
@@ -19350,15 +19363,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="1:17" ht="27.6">
-      <c r="A317" s="12" t="s">
+    <row r="317" spans="1:17" ht="28">
+      <c r="A317" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B317" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="C317" s="18" t="s">
-        <v>150</v>
+      <c r="B317" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C317" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D317" s="3">
         <v>0</v>
@@ -19404,15 +19417,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" spans="1:17" ht="27.6">
-      <c r="A318" s="12" t="s">
+    <row r="318" spans="1:17" ht="28">
+      <c r="A318" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B318" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="C318" s="18" t="s">
-        <v>150</v>
+      <c r="B318" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="C318" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D318" s="3">
         <v>2248</v>
@@ -19458,15 +19471,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:17" ht="27.6">
-      <c r="A319" s="12" t="s">
+    <row r="319" spans="1:17" ht="28">
+      <c r="A319" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B319" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="C319" s="18" t="s">
-        <v>150</v>
+      <c r="B319" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="C319" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D319" s="3">
         <v>38010</v>
@@ -19512,15 +19525,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="320" spans="1:17" ht="27.6">
-      <c r="A320" s="12" t="s">
+    <row r="320" spans="1:17" ht="28">
+      <c r="A320" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B320" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="C320" s="18" t="s">
-        <v>200</v>
+      <c r="B320" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="C320" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D320" s="3">
         <v>98795</v>
@@ -19566,15 +19579,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="321" spans="1:17" ht="27.6">
-      <c r="A321" s="12" t="s">
+    <row r="321" spans="1:17" ht="28">
+      <c r="A321" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B321" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="C321" s="18" t="s">
-        <v>200</v>
+      <c r="B321" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="C321" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D321" s="3">
         <v>20865</v>
@@ -19620,15 +19633,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="322" spans="1:17" ht="27.6">
-      <c r="A322" s="12" t="s">
+    <row r="322" spans="1:17" ht="28">
+      <c r="A322" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B322" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="C322" s="18" t="s">
-        <v>200</v>
+      <c r="B322" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="C322" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D322" s="3">
         <v>6477</v>
@@ -19674,15 +19687,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="323" spans="1:17" ht="27.6">
-      <c r="A323" s="12" t="s">
+    <row r="323" spans="1:17" ht="28">
+      <c r="A323" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B323" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="C323" s="18" t="s">
-        <v>200</v>
+      <c r="B323" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="C323" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D323" s="3">
         <v>14190</v>
@@ -19721,22 +19734,22 @@
         <v>15374</v>
       </c>
       <c r="P323" s="3">
-        <f t="shared" ref="P323:P386" si="12">SUM(D323:O323)</f>
+        <f t="shared" ref="P323:P335" si="12">SUM(D323:O323)</f>
         <v>156268</v>
       </c>
       <c r="Q323" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="324" spans="1:17" ht="27.6">
-      <c r="A324" s="12" t="s">
+    <row r="324" spans="1:17" ht="28">
+      <c r="A324" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B324" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="C324" s="18" t="s">
-        <v>317</v>
+      <c r="B324" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="C324" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="D324" s="3">
         <v>55494</v>
@@ -19782,15 +19795,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="325" spans="1:17" ht="27.6">
-      <c r="A325" s="12" t="s">
+    <row r="325" spans="1:17" ht="28">
+      <c r="A325" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B325" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="C325" s="18" t="s">
-        <v>348</v>
+      <c r="B325" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C325" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="D325" s="3">
         <v>86463</v>
@@ -19836,15 +19849,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="326" spans="1:17" ht="27.6">
-      <c r="A326" s="12" t="s">
+    <row r="326" spans="1:17" ht="28">
+      <c r="A326" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B326" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="C326" s="18" t="s">
-        <v>348</v>
+      <c r="B326" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="C326" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="D326" s="3">
         <v>2287</v>
@@ -19890,15 +19903,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="327" spans="1:17" ht="27.6">
-      <c r="A327" s="12" t="s">
+    <row r="327" spans="1:17" ht="28">
+      <c r="A327" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B327" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="C327" s="18" t="s">
-        <v>254</v>
+      <c r="B327" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="C327" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D327" s="3">
         <v>15274</v>
@@ -19944,15 +19957,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="328" spans="1:17" ht="27.6">
-      <c r="A328" s="12" t="s">
+    <row r="328" spans="1:17" ht="28">
+      <c r="A328" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B328" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="C328" s="18" t="s">
-        <v>254</v>
+      <c r="B328" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="C328" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D328" s="3">
         <v>60618</v>
@@ -19998,15 +20011,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="329" spans="1:17" ht="27.6">
-      <c r="A329" s="12" t="s">
+    <row r="329" spans="1:17" ht="28">
+      <c r="A329" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B329" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="C329" s="18" t="s">
-        <v>254</v>
+      <c r="B329" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="C329" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D329" s="3">
         <v>19381</v>
@@ -20052,15 +20065,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="330" spans="1:17" ht="27.6">
-      <c r="A330" s="12" t="s">
+    <row r="330" spans="1:17" ht="28">
+      <c r="A330" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B330" s="19" t="s">
-        <v>500</v>
-      </c>
-      <c r="C330" s="18" t="s">
-        <v>254</v>
+      <c r="B330" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="C330" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D330" s="3">
         <v>42433</v>
@@ -20106,15 +20119,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="331" spans="1:17" ht="27.6">
-      <c r="A331" s="12" t="s">
+    <row r="331" spans="1:17" ht="28">
+      <c r="A331" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B331" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="C331" s="18" t="s">
-        <v>254</v>
+      <c r="B331" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="C331" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D331" s="3">
         <v>5666</v>
@@ -20160,15 +20173,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="332" spans="1:17" ht="27.6">
-      <c r="A332" s="12" t="s">
+    <row r="332" spans="1:17" ht="28">
+      <c r="A332" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B332" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="C332" s="18" t="s">
-        <v>254</v>
+      <c r="B332" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="C332" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D332" s="3">
         <v>48494</v>
@@ -20214,15 +20227,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="333" spans="1:17" ht="27.6">
-      <c r="A333" s="12" t="s">
+    <row r="333" spans="1:17" ht="28">
+      <c r="A333" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B333" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="C333" s="18" t="s">
-        <v>254</v>
+      <c r="B333" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="C333" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D333" s="3">
         <v>127465</v>
@@ -20268,15 +20281,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="334" spans="1:17" ht="27.6">
-      <c r="A334" s="12" t="s">
+    <row r="334" spans="1:17" ht="28">
+      <c r="A334" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B334" s="19" t="s">
-        <v>504</v>
-      </c>
-      <c r="C334" s="18" t="s">
-        <v>200</v>
+      <c r="B334" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="C334" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D334" s="3">
         <v>4247</v>
@@ -20322,15 +20335,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:17" ht="27.6">
-      <c r="A335" s="12" t="s">
+    <row r="335" spans="1:17" ht="28">
+      <c r="A335" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B335" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="C335" s="18" t="s">
-        <v>160</v>
+      <c r="B335" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="C335" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D335" s="3">
         <v>17325</v>
@@ -20377,152 +20390,147 @@
       </c>
     </row>
     <row r="336" spans="1:17">
-      <c r="A336" s="13" t="s">
+      <c r="A336" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="B336" s="13"/>
-      <c r="C336" s="13"/>
-      <c r="D336" s="13"/>
-      <c r="E336" s="13"/>
-      <c r="F336" s="13"/>
-      <c r="G336" s="13"/>
-      <c r="H336" s="14"/>
-      <c r="I336" s="14"/>
-      <c r="J336" s="14"/>
-      <c r="K336" s="14"/>
-      <c r="L336" s="14"/>
-      <c r="M336" s="14"/>
-      <c r="N336" s="14"/>
-      <c r="O336" s="14"/>
-      <c r="P336" s="14"/>
-    </row>
-    <row r="337" spans="1:16" ht="16.2" customHeight="1">
-      <c r="A337" s="15" t="s">
+      <c r="B336" s="18"/>
+      <c r="C336" s="18"/>
+      <c r="D336" s="18"/>
+      <c r="E336" s="18"/>
+      <c r="F336" s="18"/>
+      <c r="G336" s="18"/>
+      <c r="H336" s="19"/>
+      <c r="I336" s="19"/>
+      <c r="J336" s="19"/>
+      <c r="K336" s="19"/>
+      <c r="L336" s="19"/>
+      <c r="M336" s="19"/>
+      <c r="N336" s="19"/>
+      <c r="O336" s="19"/>
+      <c r="P336" s="19"/>
+    </row>
+    <row r="337" spans="1:16" ht="16.25" customHeight="1">
+      <c r="A337" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B337" s="15"/>
-      <c r="C337" s="15"/>
-      <c r="D337" s="15"/>
-      <c r="E337" s="15"/>
-      <c r="F337" s="15"/>
-      <c r="G337" s="15"/>
-      <c r="H337" s="16"/>
-      <c r="I337" s="16"/>
-      <c r="J337" s="16"/>
-      <c r="K337" s="16"/>
-      <c r="L337" s="16"/>
-      <c r="M337" s="16"/>
-      <c r="N337" s="16"/>
-      <c r="O337" s="16"/>
-      <c r="P337" s="16"/>
-    </row>
-    <row r="338" spans="1:16" ht="16.2" customHeight="1">
-      <c r="A338" s="15" t="s">
+      <c r="B337" s="16"/>
+      <c r="C337" s="16"/>
+      <c r="D337" s="16"/>
+      <c r="E337" s="16"/>
+      <c r="F337" s="16"/>
+      <c r="G337" s="16"/>
+      <c r="H337" s="17"/>
+      <c r="I337" s="17"/>
+      <c r="J337" s="17"/>
+      <c r="K337" s="17"/>
+      <c r="L337" s="17"/>
+      <c r="M337" s="17"/>
+      <c r="N337" s="17"/>
+      <c r="O337" s="17"/>
+      <c r="P337" s="17"/>
+    </row>
+    <row r="338" spans="1:16" ht="16.25" customHeight="1">
+      <c r="A338" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B338" s="15"/>
-      <c r="C338" s="15"/>
-      <c r="D338" s="15"/>
-      <c r="E338" s="15"/>
-      <c r="F338" s="15"/>
-      <c r="G338" s="15"/>
-      <c r="H338" s="16"/>
-      <c r="I338" s="16"/>
-      <c r="J338" s="16"/>
-      <c r="K338" s="16"/>
-      <c r="L338" s="16"/>
-      <c r="M338" s="16"/>
-      <c r="N338" s="16"/>
-      <c r="O338" s="16"/>
-      <c r="P338" s="16"/>
-    </row>
-    <row r="339" spans="1:16" ht="16.2" customHeight="1">
-      <c r="A339" s="15" t="s">
+      <c r="B338" s="16"/>
+      <c r="C338" s="16"/>
+      <c r="D338" s="16"/>
+      <c r="E338" s="16"/>
+      <c r="F338" s="16"/>
+      <c r="G338" s="16"/>
+      <c r="H338" s="17"/>
+      <c r="I338" s="17"/>
+      <c r="J338" s="17"/>
+      <c r="K338" s="17"/>
+      <c r="L338" s="17"/>
+      <c r="M338" s="17"/>
+      <c r="N338" s="17"/>
+      <c r="O338" s="17"/>
+      <c r="P338" s="17"/>
+    </row>
+    <row r="339" spans="1:16" ht="16.25" customHeight="1">
+      <c r="A339" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B339" s="15"/>
-      <c r="C339" s="15"/>
-      <c r="D339" s="15"/>
-      <c r="E339" s="15"/>
-      <c r="F339" s="15"/>
-      <c r="G339" s="15"/>
-      <c r="H339" s="16"/>
-      <c r="I339" s="16"/>
-      <c r="J339" s="16"/>
-      <c r="K339" s="16"/>
-      <c r="L339" s="16"/>
-      <c r="M339" s="16"/>
-      <c r="N339" s="16"/>
-      <c r="O339" s="16"/>
-      <c r="P339" s="16"/>
-    </row>
-    <row r="340" spans="1:16" ht="16.2" customHeight="1">
-      <c r="A340" s="15" t="s">
+      <c r="B339" s="16"/>
+      <c r="C339" s="16"/>
+      <c r="D339" s="16"/>
+      <c r="E339" s="16"/>
+      <c r="F339" s="16"/>
+      <c r="G339" s="16"/>
+      <c r="H339" s="17"/>
+      <c r="I339" s="17"/>
+      <c r="J339" s="17"/>
+      <c r="K339" s="17"/>
+      <c r="L339" s="17"/>
+      <c r="M339" s="17"/>
+      <c r="N339" s="17"/>
+      <c r="O339" s="17"/>
+      <c r="P339" s="17"/>
+    </row>
+    <row r="340" spans="1:16" ht="16.25" customHeight="1">
+      <c r="A340" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B340" s="15"/>
-      <c r="C340" s="15"/>
-      <c r="D340" s="15"/>
-      <c r="E340" s="15"/>
-      <c r="F340" s="15"/>
-      <c r="G340" s="15"/>
-      <c r="H340" s="16"/>
-      <c r="I340" s="16"/>
-      <c r="J340" s="16"/>
-      <c r="K340" s="16"/>
-      <c r="L340" s="16"/>
-      <c r="M340" s="16"/>
-      <c r="N340" s="16"/>
-      <c r="O340" s="16"/>
-      <c r="P340" s="16"/>
-    </row>
-    <row r="341" spans="1:16" ht="16.2" customHeight="1">
-      <c r="A341" s="15" t="s">
+      <c r="B340" s="16"/>
+      <c r="C340" s="16"/>
+      <c r="D340" s="16"/>
+      <c r="E340" s="16"/>
+      <c r="F340" s="16"/>
+      <c r="G340" s="16"/>
+      <c r="H340" s="17"/>
+      <c r="I340" s="17"/>
+      <c r="J340" s="17"/>
+      <c r="K340" s="17"/>
+      <c r="L340" s="17"/>
+      <c r="M340" s="17"/>
+      <c r="N340" s="17"/>
+      <c r="O340" s="17"/>
+      <c r="P340" s="17"/>
+    </row>
+    <row r="341" spans="1:16" ht="16.25" customHeight="1">
+      <c r="A341" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B341" s="15"/>
-      <c r="C341" s="15"/>
-      <c r="D341" s="15"/>
-      <c r="E341" s="15"/>
-      <c r="F341" s="15"/>
-      <c r="G341" s="15"/>
-      <c r="H341" s="16"/>
-      <c r="I341" s="16"/>
-      <c r="J341" s="16"/>
-      <c r="K341" s="16"/>
-      <c r="L341" s="16"/>
-      <c r="M341" s="16"/>
-      <c r="N341" s="16"/>
-      <c r="O341" s="16"/>
-      <c r="P341" s="16"/>
-    </row>
-    <row r="342" spans="1:16" ht="16.2" customHeight="1">
-      <c r="A342" s="15" t="s">
+      <c r="B341" s="16"/>
+      <c r="C341" s="16"/>
+      <c r="D341" s="16"/>
+      <c r="E341" s="16"/>
+      <c r="F341" s="16"/>
+      <c r="G341" s="16"/>
+      <c r="H341" s="17"/>
+      <c r="I341" s="17"/>
+      <c r="J341" s="17"/>
+      <c r="K341" s="17"/>
+      <c r="L341" s="17"/>
+      <c r="M341" s="17"/>
+      <c r="N341" s="17"/>
+      <c r="O341" s="17"/>
+      <c r="P341" s="17"/>
+    </row>
+    <row r="342" spans="1:16" ht="16.25" customHeight="1">
+      <c r="A342" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B342" s="15"/>
-      <c r="C342" s="15"/>
-      <c r="D342" s="15"/>
-      <c r="E342" s="15"/>
-      <c r="F342" s="15"/>
-      <c r="G342" s="15"/>
-      <c r="H342" s="16"/>
-      <c r="I342" s="16"/>
-      <c r="J342" s="16"/>
-      <c r="K342" s="16"/>
-      <c r="L342" s="16"/>
-      <c r="M342" s="16"/>
-      <c r="N342" s="16"/>
-      <c r="O342" s="16"/>
-      <c r="P342" s="16"/>
+      <c r="B342" s="16"/>
+      <c r="C342" s="16"/>
+      <c r="D342" s="16"/>
+      <c r="E342" s="16"/>
+      <c r="F342" s="16"/>
+      <c r="G342" s="16"/>
+      <c r="H342" s="17"/>
+      <c r="I342" s="17"/>
+      <c r="J342" s="17"/>
+      <c r="K342" s="17"/>
+      <c r="L342" s="17"/>
+      <c r="M342" s="17"/>
+      <c r="N342" s="17"/>
+      <c r="O342" s="17"/>
+      <c r="P342" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A336:P336"/>
-    <mergeCell ref="A337:P337"/>
-    <mergeCell ref="A338:P338"/>
-    <mergeCell ref="A339:P339"/>
-    <mergeCell ref="A340:P340"/>
     <mergeCell ref="A341:P341"/>
     <mergeCell ref="A342:P342"/>
     <mergeCell ref="A316:A335"/>
@@ -20531,6 +20539,11 @@
     <mergeCell ref="A268:A270"/>
     <mergeCell ref="A271:A306"/>
     <mergeCell ref="A307:A315"/>
+    <mergeCell ref="A336:P336"/>
+    <mergeCell ref="A337:P337"/>
+    <mergeCell ref="A338:P338"/>
+    <mergeCell ref="A339:P339"/>
+    <mergeCell ref="A340:P340"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A4:A45"/>
     <mergeCell ref="A46:A134"/>
